--- a/統計管制與最佳化方法概論/homework/my_homework/HW8/hw_8.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW8/hw_8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D28581B-31A4-453A-AC21-CA70C8449A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E47C73-307B-4E10-BBA3-486F2BED8D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{5CAD4C58-2065-4908-83C9-FEAE55A7EDD1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{5CAD4C58-2065-4908-83C9-FEAE55A7EDD1}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題g" sheetId="1" r:id="rId1"/>
@@ -17815,15 +17815,15 @@
       <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="7" width="14.375" customWidth="1"/>
+    <col min="6" max="7" width="14.36328125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="23" max="23" width="14.625" customWidth="1"/>
-    <col min="24" max="24" width="12.875" customWidth="1"/>
+    <col min="23" max="23" width="14.6328125" customWidth="1"/>
+    <col min="24" max="24" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -17843,7 +17843,7 @@
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -17907,7 +17907,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>352</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>354</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>12.106521008403396</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>352</v>
       </c>
@@ -18142,7 +18142,7 @@
         <v>3.4794426289857685</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>355</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>360.43832788695732</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>351</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>339.56167211304268</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>350</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>0.99999999869121214</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>354</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>1.7669322164348428E-17</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>352</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>0.99999999869121214</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>354</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>764065769.34181535</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>352</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>353</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>351</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>352</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>352</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>352</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>351</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>352</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>338</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>346</v>
       </c>
@@ -19280,7 +19280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>344</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>345</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>346</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>348</v>
       </c>
@@ -19540,7 +19540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>348</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>348</v>
       </c>
@@ -19670,7 +19670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>344</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>337</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>344</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>345</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>344</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>345</v>
       </c>
@@ -20060,7 +20060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>349</v>
       </c>
@@ -20125,7 +20125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>349</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>348</v>
       </c>
@@ -20255,7 +20255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>348</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>354</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>346</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>350</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>342</v>
       </c>
@@ -20580,7 +20580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>349</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>349</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>349</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>348</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>349</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>339</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>350</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>349</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>343</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>342</v>
       </c>
@@ -20897,7 +20897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>350</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>350</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>355</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>349</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>351</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>350</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>345</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>345</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>348</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>348</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>352</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>350</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>350</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>348</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>348</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>351</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>347</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>349</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>347</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>347</v>
       </c>
@@ -21457,7 +21457,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>347</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>349</v>
       </c>
@@ -21513,7 +21513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>338</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>348</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>348</v>
       </c>
@@ -21597,7 +21597,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>346</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>348</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>346</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>350</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>350</v>
       </c>
@@ -21737,7 +21737,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>350</v>
       </c>
@@ -21765,7 +21765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>348</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>350</v>
       </c>
@@ -21821,7 +21821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>345</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>351</v>
       </c>
@@ -21877,7 +21877,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>349</v>
       </c>
@@ -21924,14 +21924,14 @@
       <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="26" width="9" style="11"/>
-    <col min="27" max="27" width="15.625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="15.6328125" style="11" customWidth="1"/>
     <col min="28" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B1" s="11" t="s">
         <v>50</v>
       </c>
@@ -22020,7 +22020,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>75</v>
       </c>
@@ -22104,7 +22104,7 @@
         <v>15.619047619047619</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>76</v>
       </c>
@@ -22188,7 +22188,7 @@
         <v>16.61904761904762</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>77</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>78</v>
       </c>
@@ -22377,7 +22377,7 @@
         <v>16.760000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>79</v>
       </c>
@@ -22473,7 +22473,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>80</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>81</v>
       </c>
@@ -22632,7 +22632,7 @@
         <v>16.578947368421051</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>82</v>
       </c>
@@ -22728,7 +22728,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>83</v>
       </c>
@@ -22824,7 +22824,7 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>84</v>
       </c>
@@ -22920,7 +22920,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>85</v>
       </c>
@@ -23007,7 +23007,7 @@
         <v>16.59090909090909</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>86</v>
       </c>
@@ -23088,7 +23088,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>87</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>88</v>
       </c>
@@ -23250,7 +23250,7 @@
         <v>16.45</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>89</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>15.291666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>90</v>
       </c>
@@ -23439,7 +23439,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>91</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>14.523809523809524</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
@@ -23619,7 +23619,7 @@
         <v>16.28</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>93</v>
       </c>
@@ -23712,7 +23712,7 @@
         <v>15.333333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>94</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>95</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>15.631578947368421</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>96</v>
       </c>
@@ -23982,7 +23982,7 @@
         <v>15.68</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>97</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>15.64</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>98</v>
       </c>
@@ -24174,7 +24174,7 @@
         <v>15.68</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>99</v>
       </c>
@@ -24264,7 +24264,7 @@
         <v>14.217391304347826</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>100</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>101</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>17.260869565217391</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>102</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>17.166666666666668</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>103</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>15.684210526315789</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>104</v>
       </c>
@@ -24687,7 +24687,7 @@
         <v>16.210526315789473</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>105</v>
       </c>
@@ -24780,7 +24780,7 @@
         <v>16.833333333333332</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>106</v>
       </c>
@@ -24861,7 +24861,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>107</v>
       </c>
@@ -24957,7 +24957,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>108</v>
       </c>
@@ -25044,7 +25044,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
         <v>109</v>
       </c>
@@ -25137,7 +25137,7 @@
         <v>15.625</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>110</v>
       </c>
@@ -25230,7 +25230,7 @@
         <v>15.083333333333334</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>111</v>
       </c>
@@ -25323,7 +25323,7 @@
         <v>15.541666666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
         <v>112</v>
       </c>
@@ -25407,7 +25407,7 @@
         <v>16.19047619047619</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
         <v>113</v>
       </c>
@@ -25488,7 +25488,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A41" s="11" t="s">
         <v>114</v>
       </c>
@@ -25584,7 +25584,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A42" s="11" t="s">
         <v>115</v>
       </c>
@@ -25680,7 +25680,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
         <v>116</v>
       </c>
@@ -25764,7 +25764,7 @@
         <v>16.238095238095237</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>117</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>118</v>
       </c>
@@ -25935,7 +25935,7 @@
         <v>15.727272727272727</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>119</v>
       </c>
@@ -26031,7 +26031,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>120</v>
       </c>
@@ -26124,7 +26124,7 @@
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
         <v>121</v>
       </c>
@@ -26211,7 +26211,7 @@
         <v>15.409090909090908</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
         <v>122</v>
       </c>
@@ -26298,7 +26298,7 @@
         <v>15.545454545454545</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>123</v>
       </c>
@@ -26382,7 +26382,7 @@
         <v>15.238095238095237</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>124</v>
       </c>
@@ -26478,7 +26478,7 @@
         <v>15.52</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>125</v>
       </c>
@@ -26556,7 +26556,7 @@
         <v>16.789473684210527</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
@@ -26652,7 +26652,7 @@
         <v>15.12</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>127</v>
       </c>
@@ -26736,7 +26736,7 @@
         <v>15.523809523809524</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>128</v>
       </c>
@@ -26832,7 +26832,7 @@
         <v>16.239999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>129</v>
       </c>
@@ -26925,7 +26925,7 @@
         <v>15.958333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>130</v>
       </c>
@@ -27012,7 +27012,7 @@
         <v>15.227272727272727</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>131</v>
       </c>
@@ -27108,7 +27108,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>132</v>
       </c>
@@ -27204,7 +27204,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>133</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>15.545454545454545</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>134</v>
       </c>
@@ -27369,7 +27369,7 @@
         <v>16.526315789473685</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>135</v>
       </c>
@@ -27453,7 +27453,7 @@
         <v>14.238095238095237</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>136</v>
       </c>
@@ -27543,7 +27543,7 @@
         <v>16.739130434782609</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A64" s="11" t="s">
         <v>137</v>
       </c>
@@ -27627,7 +27627,7 @@
         <v>15.904761904761905</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A65" s="11" t="s">
         <v>138</v>
       </c>
@@ -27708,7 +27708,7 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A66" s="11" t="s">
         <v>139</v>
       </c>
@@ -27804,7 +27804,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A67" s="11" t="s">
         <v>140</v>
       </c>
@@ -27882,7 +27882,7 @@
         <v>15.578947368421053</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
         <v>141</v>
       </c>
@@ -27978,7 +27978,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A69" s="11" t="s">
         <v>142</v>
       </c>
@@ -28062,7 +28062,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A70" s="11" t="s">
         <v>143</v>
       </c>
@@ -28152,7 +28152,7 @@
         <v>15.826086956521738</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A71" s="11" t="s">
         <v>144</v>
       </c>
@@ -28239,7 +28239,7 @@
         <v>16.09090909090909</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>145</v>
       </c>
@@ -28326,7 +28326,7 @@
         <v>14.636363636363637</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A73" s="11" t="s">
         <v>146</v>
       </c>
@@ -28407,7 +28407,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A74" s="11" t="s">
         <v>147</v>
       </c>
@@ -28500,7 +28500,7 @@
         <v>16.958333333333332</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A75" s="11" t="s">
         <v>148</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A76" s="11" t="s">
         <v>149</v>
       </c>
@@ -28671,7 +28671,7 @@
         <v>15.619047619047619</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A77" s="11" t="s">
         <v>150</v>
       </c>
@@ -28761,7 +28761,7 @@
         <v>21.434782608695652</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A78" s="11" t="s">
         <v>151</v>
       </c>
@@ -28857,7 +28857,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A79" s="11" t="s">
         <v>152</v>
       </c>
@@ -28944,7 +28944,7 @@
         <v>22.681818181818183</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A80" s="11" t="s">
         <v>153</v>
       </c>
@@ -29040,7 +29040,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A81" s="11" t="s">
         <v>154</v>
       </c>
@@ -29130,7 +29130,7 @@
         <v>22.826086956521738</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A82" s="11" t="s">
         <v>155</v>
       </c>
@@ -29226,7 +29226,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A83" s="11" t="s">
         <v>156</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>21.434782608695652</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A84" s="11" t="s">
         <v>157</v>
       </c>
@@ -29412,7 +29412,7 @@
         <v>23.72</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A85" s="11" t="s">
         <v>158</v>
       </c>
@@ -29508,7 +29508,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A86" s="11" t="s">
         <v>159</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>20.958333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A87" s="11" t="s">
         <v>160</v>
       </c>
@@ -29697,7 +29697,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A88" s="11" t="s">
         <v>161</v>
       </c>
@@ -29793,7 +29793,7 @@
         <v>21.44</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A89" s="11" t="s">
         <v>162</v>
       </c>
@@ -29883,7 +29883,7 @@
         <v>21.217391304347824</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A90" s="11" t="s">
         <v>163</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>21.333333333333332</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A91" s="11" t="s">
         <v>164</v>
       </c>
@@ -30057,7 +30057,7 @@
         <v>23.043478260869566</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A92" s="11" t="s">
         <v>165</v>
       </c>
@@ -30138,7 +30138,7 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A93" s="11" t="s">
         <v>166</v>
       </c>
@@ -30231,7 +30231,7 @@
         <v>21.125</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A94" s="11" t="s">
         <v>167</v>
       </c>
@@ -30324,7 +30324,7 @@
         <v>20.958333333333332</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A95" s="11" t="s">
         <v>168</v>
       </c>
@@ -30420,7 +30420,7 @@
         <v>21.76</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A96" s="11" t="s">
         <v>169</v>
       </c>
@@ -30510,7 +30510,7 @@
         <v>21.478260869565219</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A97" s="11" t="s">
         <v>170</v>
       </c>
@@ -30594,7 +30594,7 @@
         <v>24.19047619047619</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A98" s="11" t="s">
         <v>171</v>
       </c>
@@ -30681,7 +30681,7 @@
         <v>21.454545454545453</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A99" s="11" t="s">
         <v>172</v>
       </c>
@@ -30774,7 +30774,7 @@
         <v>21.291666666666668</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A100" s="11" t="s">
         <v>173</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A101" s="11" t="s">
         <v>174</v>
       </c>
@@ -30969,23 +30969,23 @@
       <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="17" width="18.375" customWidth="1"/>
-    <col min="18" max="18" width="18.875" customWidth="1"/>
-    <col min="19" max="19" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.75" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" customWidth="1"/>
+    <col min="17" max="17" width="18.36328125" customWidth="1"/>
+    <col min="18" max="18" width="18.90625" customWidth="1"/>
+    <col min="19" max="19" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -31041,7 +31041,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31115,7 +31115,7 @@
         <v>236.07754903992827</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31170,7 +31170,7 @@
         <v>-1.0109817203116032</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -31237,7 +31237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -31311,7 +31311,7 @@
         <v>1.0000471957876937</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>3.8541062803853318E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -31421,7 +31421,7 @@
         <v>-0.82230830475131367</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -31476,7 +31476,7 @@
         <v>1.1940586561798707</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -31531,7 +31531,7 @@
         <v>-0.66017984223341264</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -31579,7 +31579,7 @@
         <v>-0.4483522462254963</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -31627,7 +31627,7 @@
         <v>0.65465474553770941</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -31675,7 +31675,7 @@
         <v>-1.9392436739288166</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -31723,7 +31723,7 @@
         <v>0.97601719757936622</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -31771,7 +31771,7 @@
         <v>-2.5462530802659127E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -31819,7 +31819,7 @@
         <v>-1.4309294225765534</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -31867,7 +31867,7 @@
         <v>-0.71029439624458368</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -31915,7 +31915,7 @@
         <v>-0.38008130120845057</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -31963,7 +31963,7 @@
         <v>-0.4096070721775642</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -32011,7 +32011,7 @@
         <v>0.84940884891215607</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -32059,7 +32059,7 @@
         <v>-0.12119152328456016</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -32107,7 +32107,7 @@
         <v>0.19271528267590399</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -32155,7 +32155,7 @@
         <v>-1.5167981277278302</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>1.3145295384844324</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -32251,7 +32251,7 @@
         <v>1.2660919229489929</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -32299,7 +32299,7 @@
         <v>-0.50177454030061241</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -32347,7 +32347,7 @@
         <v>-0.35353929819571533</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -32395,7 +32395,7 @@
         <v>6.6188049048795499</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>5.3034520850958016</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -32491,7 +32491,7 @@
         <v>7.9389479235678335</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -32539,7 +32539,7 @@
         <v>7.6588361236207838</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -32587,7 +32587,7 @@
         <v>8.2907420033388632</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -32635,7 +32635,7 @@
         <v>8.4606689877995027</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -32683,7 +32683,7 @@
         <v>6.6188049048795499</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -32731,7 +32731,7 @@
         <v>9.7636473920899185</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -32779,7 +32779,7 @@
         <v>9.4128455140117318</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -32827,7 +32827,7 @@
         <v>6.1762953635295599</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -32875,7 +32875,7 @@
         <v>7.2579196915314252</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -32923,7 +32923,7 @@
         <v>6.9071178134532385</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -32971,7 +32971,7 @@
         <v>6.3575647332452796</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -33019,7 +33019,7 @@
         <v>6.2079960496653905</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -33067,7 +33067,7 @@
         <v>8.5519821749731335</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -33115,7 +33115,7 @@
         <v>8.8785491250810225</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -33163,7 +33163,7 @@
         <v>6.3808871735537513</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -33211,7 +33211,7 @@
         <v>6.1762953635295599</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -33259,7 +33259,7 @@
         <v>7.308034245542598</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -33307,7 +33307,7 @@
         <v>6.6710529392064046</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -33355,7 +33355,7 @@
         <v>9.4887637235959446</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -33403,7 +33403,7 @@
         <v>6.4965459835396784</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -33451,7 +33451,7 @@
         <v>6.5854789835779428</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -33499,7 +33499,7 @@
         <v>8.4997341406462787</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -33558,21 +33558,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90415827-591C-4161-BAFC-FE38AB37CA9F}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="15" max="15" width="18.625" customWidth="1"/>
-    <col min="16" max="16" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+    <col min="15" max="15" width="18.6328125" customWidth="1"/>
+    <col min="16" max="16" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -33622,7 +33622,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33688,7 +33688,7 @@
         <v>236.07754903992827</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -33735,7 +33735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -33794,7 +33794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -33860,7 +33860,7 @@
         <v>31.708046653523201</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -33907,7 +33907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -33954,7 +33954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -33998,7 +33998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -34038,7 +34038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -34078,7 +34078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -34118,7 +34118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -34198,7 +34198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -34238,7 +34238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -34318,7 +34318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -34358,7 +34358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -34398,7 +34398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -34478,7 +34478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -34518,7 +34518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -34558,7 +34558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -34598,7 +34598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -34638,7 +34638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -34678,7 +34678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -34718,7 +34718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -34758,7 +34758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -34838,7 +34838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -34878,7 +34878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -34918,7 +34918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -34958,7 +34958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -34998,7 +34998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -35078,7 +35078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -35118,7 +35118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -35158,7 +35158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -35198,7 +35198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -35238,7 +35238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -35278,7 +35278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -35318,7 +35318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -35358,7 +35358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -35398,7 +35398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -35438,7 +35438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -35478,7 +35478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -35558,7 +35558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -35598,7 +35598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -35638,7 +35638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -35678,7 +35678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -35733,18 +35733,18 @@
       <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="9.25" customWidth="1"/>
-    <col min="11" max="12" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" customWidth="1"/>
+    <col min="11" max="12" width="13.08984375" customWidth="1"/>
     <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -35814,7 +35814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -35945,7 +35945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -36052,7 +36052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -36126,7 +36126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -36232,7 +36232,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -36347,7 +36347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -36529,7 +36529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -36624,7 +36624,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -36846,7 +36846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -36957,7 +36957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -37068,7 +37068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -37179,7 +37179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -37290,7 +37290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -37409,7 +37409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -37536,7 +37536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -37663,7 +37663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -37790,7 +37790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -37917,7 +37917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -38044,7 +38044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -38171,7 +38171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -38298,7 +38298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -38425,7 +38425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -38552,7 +38552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -38679,7 +38679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -38806,7 +38806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -38933,7 +38933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -39060,7 +39060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -39187,7 +39187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -39314,7 +39314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -39441,7 +39441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -39568,7 +39568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -39695,7 +39695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -39822,7 +39822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -39949,7 +39949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -40076,7 +40076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -40203,7 +40203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -40330,7 +40330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -40457,7 +40457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -40584,7 +40584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -40711,7 +40711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -40739,7 +40739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -40767,7 +40767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -40795,7 +40795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -40823,7 +40823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -40851,7 +40851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -40879,7 +40879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -40907,7 +40907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -40935,7 +40935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -40963,7 +40963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
@@ -40991,7 +40991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
@@ -41047,7 +41047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -41075,7 +41075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
@@ -41103,7 +41103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
@@ -41131,7 +41131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
@@ -41159,7 +41159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
@@ -41187,7 +41187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -41215,7 +41215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -41243,7 +41243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -41271,7 +41271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -41299,7 +41299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -41327,7 +41327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -41355,7 +41355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -41383,7 +41383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -41411,7 +41411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -41439,7 +41439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -41467,7 +41467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -41495,7 +41495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
@@ -41523,7 +41523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
@@ -41551,7 +41551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
@@ -41579,7 +41579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>72</v>
       </c>
@@ -41607,7 +41607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
@@ -41635,7 +41635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>74</v>
       </c>
@@ -41663,7 +41663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
@@ -41691,7 +41691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>76</v>
       </c>
@@ -41719,7 +41719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>77</v>
       </c>
@@ -41747,7 +41747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>78</v>
       </c>
@@ -41775,7 +41775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>79</v>
       </c>
@@ -41803,7 +41803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>80</v>
       </c>
@@ -41831,7 +41831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>81</v>
       </c>
@@ -41859,7 +41859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>82</v>
       </c>
@@ -41887,7 +41887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>83</v>
       </c>
@@ -41915,7 +41915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>84</v>
       </c>
@@ -41943,7 +41943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>85</v>
       </c>
@@ -42057,17 +42057,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE6E9B6-3496-4FF6-957F-2E2D39693857}">
   <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28:X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="4" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="3" max="4" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -42130,7 +42130,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -42225,7 +42225,7 @@
         <v>LCL</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -42319,7 +42319,7 @@
         <v>333.35878376855794</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -42395,7 +42395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -42490,7 +42490,7 @@
         <v>LCL</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -42584,7 +42584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -42660,7 +42660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -42736,7 +42736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -42812,7 +42812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -42888,7 +42888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -42964,7 +42964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -43037,7 +43037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -43113,7 +43113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -43189,7 +43189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -43265,7 +43265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -43341,7 +43341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -43417,7 +43417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -43493,7 +43493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -43569,7 +43569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -43645,7 +43645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -43721,7 +43721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -43797,7 +43797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -43866,7 +43866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -43935,7 +43935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -44004,7 +44004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -44073,7 +44073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -44095,7 +44095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -44165,7 +44165,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -44235,7 +44235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -44291,23 +44291,23 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <f>COUNTIF(Q2:Q4,"&gt;"&amp;$H$19)+COUNTIF(Q2:Q4,"&lt;"&amp;$H$20)</f>
+        <f t="shared" ref="R30:R54" si="12">COUNTIF(Q2:Q4,"&gt;"&amp;$H$19)+COUNTIF(Q2:Q4,"&lt;"&amp;$H$20)</f>
         <v>0</v>
       </c>
       <c r="S30">
-        <f>COUNTIF(Q2:Q6,"&gt;"&amp;$H$21)+COUNTIF(Q2:Q6,"&lt;"&amp;$H$22)</f>
+        <f t="shared" ref="S30:S54" si="13">COUNTIF(Q2:Q6,"&gt;"&amp;$H$21)+COUNTIF(Q2:Q6,"&lt;"&amp;$H$22)</f>
         <v>0</v>
       </c>
       <c r="T30">
-        <f>MAX(COUNTIF(Q2:Q9,"&gt;"&amp;$H$16),COUNTIF(Q2:Q9,"&lt;"&amp;$H$16))</f>
+        <f t="shared" ref="T30:T54" si="14">MAX(COUNTIF(Q2:Q9,"&gt;"&amp;$H$16),COUNTIF(Q2:Q9,"&lt;"&amp;$H$16))</f>
         <v>7</v>
       </c>
       <c r="U30">
-        <f>MAX(IF(U2&gt;U3,1,0)+IF(U3&gt;U4,1,0)+IF(U4&gt;U5,1,0)+IF(U5&gt;U6,1,0)+IF(U6&gt;U7,1,0),IF(U2&lt;U3,1,0)+IF(U3&lt;U4,1,0)+IF(U4&lt;U5,1,0)+IF(U5&lt;U6,1,0)+IF(U6&lt;U7,1,0))</f>
+        <f t="shared" ref="U30:U52" si="15">MAX(IF(U2&gt;U3,1,0)+IF(U3&gt;U4,1,0)+IF(U4&gt;U5,1,0)+IF(U5&gt;U6,1,0)+IF(U6&gt;U7,1,0),IF(U2&lt;U3,1,0)+IF(U3&lt;U4,1,0)+IF(U4&lt;U5,1,0)+IF(U5&lt;U6,1,0)+IF(U6&lt;U7,1,0))</f>
         <v>3</v>
       </c>
       <c r="V30">
-        <f>MAX(IF(U2&gt;U3,1,0)+IF(U3&lt;U4,1,0)+IF(U4&gt;U5,1,0)+IF(U5&lt;U6,1,0)+IF(U6&gt;U7,1,0)+IF(U7&lt;U8,1,0)+IF(U8&gt;U9,1,0)+IF(U9&lt;U10,1,0)+IF(U10&gt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0),IF(U2&lt;U3,1,0)+IF(U3&gt;U4,1,0)+IF(U4&lt;U5,1,0)+IF(U5&gt;U6,1,0)+IF(U6&lt;U7,1,0)+IF(U7&gt;U8,1,0)+IF(U8&lt;U9,1,0)+IF(U9&gt;U10,1,0)+IF(U10&lt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0))</f>
+        <f t="shared" ref="V30:V44" si="16">MAX(IF(U2&gt;U3,1,0)+IF(U3&lt;U4,1,0)+IF(U4&gt;U5,1,0)+IF(U5&lt;U6,1,0)+IF(U6&gt;U7,1,0)+IF(U7&lt;U8,1,0)+IF(U8&gt;U9,1,0)+IF(U9&lt;U10,1,0)+IF(U10&gt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0),IF(U2&lt;U3,1,0)+IF(U3&gt;U4,1,0)+IF(U4&lt;U5,1,0)+IF(U5&gt;U6,1,0)+IF(U6&lt;U7,1,0)+IF(U7&gt;U8,1,0)+IF(U8&lt;U9,1,0)+IF(U9&gt;U10,1,0)+IF(U10&lt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0))</f>
         <v>10</v>
       </c>
       <c r="W30">
@@ -44319,7 +44319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -44352,58 +44352,58 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31:K54" si="12">MAX(COUNTIF(M3:M10,"&gt;"&amp;$H$5),COUNTIF(M3:M10,"&lt;"&amp;$H$5))</f>
+        <f t="shared" ref="K31:K54" si="17">MAX(COUNTIF(M3:M10,"&gt;"&amp;$H$5),COUNTIF(M3:M10,"&lt;"&amp;$H$5))</f>
         <v>6</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31:L54" si="13">MAX(IF(M3&gt;M4,1,0)+IF(M4&gt;M5,1,0)+IF(M5&gt;M6,1,0)+IF(M6&gt;M7,1,0)+IF(M7&gt;M8,1,0),IF(M3&lt;M4,1,0)+IF(M4&lt;M5,1,0)+IF(M5&lt;M6,1,0)+IF(M6&lt;M7,1,0)+IF(M7&lt;M8,1,0))</f>
+        <f t="shared" ref="L31:L54" si="18">MAX(IF(M3&gt;M4,1,0)+IF(M4&gt;M5,1,0)+IF(M5&gt;M6,1,0)+IF(M6&gt;M7,1,0)+IF(M7&gt;M8,1,0),IF(M3&lt;M4,1,0)+IF(M4&lt;M5,1,0)+IF(M5&lt;M6,1,0)+IF(M6&lt;M7,1,0)+IF(M7&lt;M8,1,0))</f>
         <v>3</v>
       </c>
       <c r="M31">
-        <f t="shared" ref="M31:M54" si="14">MAX(IF(M3&gt;M4,1,0)+IF(M4&lt;M5,1,0)+IF(M5&gt;M6,1,0)+IF(M6&lt;M7,1,0)+IF(M7&gt;M8,1,0)+IF(M8&lt;M9,1,0)+IF(M9&gt;M10,1,0)+IF(M10&lt;M11,1,0)+IF(M11&gt;M12,1,0)+IF(M12&lt;M13,1,0)+IF(M13&gt;M14,1,0)+IF(M14&lt;M15,1,0)+IF(M15&gt;M16,1,0),IF(M3&lt;M4,1,0)+IF(M4&gt;M5,1,0)+IF(M5&lt;M6,1,0)+IF(M6&gt;M7,1,0)+IF(M7&lt;M8,1,0)+IF(M8&gt;M9,1,0)+IF(M9&lt;M10,1,0)+IF(M10&gt;M11,1,0)+IF(M11&lt;M12,1,0)+IF(M12&gt;M13,1,0)+IF(M13&lt;M14,1,0)+IF(M14&gt;M15,1,0)+IF(M15&lt;M16,1,0))</f>
+        <f t="shared" ref="M31:M54" si="19">MAX(IF(M3&gt;M4,1,0)+IF(M4&lt;M5,1,0)+IF(M5&gt;M6,1,0)+IF(M6&lt;M7,1,0)+IF(M7&gt;M8,1,0)+IF(M8&lt;M9,1,0)+IF(M9&gt;M10,1,0)+IF(M10&lt;M11,1,0)+IF(M11&gt;M12,1,0)+IF(M12&lt;M13,1,0)+IF(M13&gt;M14,1,0)+IF(M14&lt;M15,1,0)+IF(M15&gt;M16,1,0),IF(M3&lt;M4,1,0)+IF(M4&gt;M5,1,0)+IF(M5&lt;M6,1,0)+IF(M6&gt;M7,1,0)+IF(M7&lt;M8,1,0)+IF(M8&gt;M9,1,0)+IF(M9&lt;M10,1,0)+IF(M10&gt;M11,1,0)+IF(M11&lt;M12,1,0)+IF(M12&gt;M13,1,0)+IF(M13&lt;M14,1,0)+IF(M14&gt;M15,1,0)+IF(M15&lt;M16,1,0))</f>
         <v>7</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N31:N54" si="15">COUNTIF(M3:M10,"&gt;"&amp;$H$10)+COUNTIF(M3:M10,"&lt;"&amp;$H$11)</f>
+        <f t="shared" ref="N31:N54" si="20">COUNTIF(M3:M10,"&gt;"&amp;$H$10)+COUNTIF(M3:M10,"&lt;"&amp;$H$11)</f>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" ref="O31:O54" si="16">COUNTIFS(M3:M17,"&lt;"&amp;$H$10,M3:M17,"&gt;"&amp;$H$11)</f>
+        <f t="shared" ref="O31:O54" si="21">COUNTIFS(M3:M17,"&lt;"&amp;$H$10,M3:M17,"&gt;"&amp;$H$11)</f>
         <v>13</v>
       </c>
       <c r="P31">
         <v>2</v>
       </c>
       <c r="R31">
-        <f>COUNTIF(Q3:Q5,"&gt;"&amp;$H$19)+COUNTIF(Q3:Q5,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f>COUNTIF(Q3:Q7,"&gt;"&amp;$H$21)+COUNTIF(Q3:Q7,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T31">
-        <f>MAX(COUNTIF(Q3:Q10,"&gt;"&amp;$H$16),COUNTIF(Q3:Q10,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="U31">
-        <f>MAX(IF(U3&gt;U4,1,0)+IF(U4&gt;U5,1,0)+IF(U5&gt;U6,1,0)+IF(U6&gt;U7,1,0)+IF(U7&gt;U8,1,0),IF(U3&lt;U4,1,0)+IF(U4&lt;U5,1,0)+IF(U5&lt;U6,1,0)+IF(U6&lt;U7,1,0)+IF(U7&lt;U8,1,0))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V31">
-        <f>MAX(IF(U3&gt;U4,1,0)+IF(U4&lt;U5,1,0)+IF(U5&gt;U6,1,0)+IF(U6&lt;U7,1,0)+IF(U7&gt;U8,1,0)+IF(U8&lt;U9,1,0)+IF(U9&gt;U10,1,0)+IF(U10&lt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&gt;U16,1,0),IF(U3&lt;U4,1,0)+IF(U4&gt;U5,1,0)+IF(U5&lt;U6,1,0)+IF(U6&gt;U7,1,0)+IF(U7&lt;U8,1,0)+IF(U8&gt;U9,1,0)+IF(U9&lt;U10,1,0)+IF(U10&gt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&lt;U16,1,0))</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="W31">
-        <f t="shared" ref="W31:W54" si="17">COUNTIF(U3:U10,"&gt;"&amp;$H$21)+COUNTIF(U3:U10,"&lt;"&amp;$H$22)</f>
+        <f t="shared" ref="W31:W54" si="22">COUNTIF(U3:U10,"&gt;"&amp;$H$21)+COUNTIF(U3:U10,"&lt;"&amp;$H$22)</f>
         <v>0</v>
       </c>
       <c r="X31">
-        <f t="shared" ref="X31:X54" si="18">COUNTIFS(U3:U17,"&lt;"&amp;$H$21,U3:U17,"&gt;"&amp;$H$22)</f>
+        <f t="shared" ref="X31:X54" si="23">COUNTIFS(U3:U17,"&lt;"&amp;$H$21,U3:U17,"&gt;"&amp;$H$22)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -44436,58 +44436,58 @@
         <v>0</v>
       </c>
       <c r="K32">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="N32">
+      <c r="U32">
         <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="P32">
-        <v>3</v>
-      </c>
-      <c r="R32">
-        <f>COUNTIF(Q4:Q6,"&gt;"&amp;$H$19)+COUNTIF(Q4:Q6,"&lt;"&amp;$H$20)</f>
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f>COUNTIF(Q4:Q8,"&gt;"&amp;$H$21)+COUNTIF(Q4:Q8,"&lt;"&amp;$H$22)</f>
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <f>MAX(COUNTIF(Q4:Q11,"&gt;"&amp;$H$16),COUNTIF(Q4:Q11,"&lt;"&amp;$H$16))</f>
-        <v>7</v>
-      </c>
-      <c r="U32">
-        <f>MAX(IF(U4&gt;U5,1,0)+IF(U5&gt;U6,1,0)+IF(U6&gt;U7,1,0)+IF(U7&gt;U8,1,0)+IF(U8&gt;U9,1,0),IF(U4&lt;U5,1,0)+IF(U5&lt;U6,1,0)+IF(U6&lt;U7,1,0)+IF(U7&lt;U8,1,0)+IF(U8&lt;U9,1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <f>MAX(IF(U4&gt;U5,1,0)+IF(U5&lt;U6,1,0)+IF(U6&gt;U7,1,0)+IF(U7&lt;U8,1,0)+IF(U8&gt;U9,1,0)+IF(U9&lt;U10,1,0)+IF(U10&gt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&gt;U17,1,0),IF(U4&lt;U5,1,0)+IF(U5&gt;U6,1,0)+IF(U6&lt;U7,1,0)+IF(U7&gt;U8,1,0)+IF(U8&lt;U9,1,0)+IF(U9&gt;U10,1,0)+IF(U10&lt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&lt;U17,1,0))</f>
-        <v>10</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="X32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -44520,58 +44520,58 @@
         <v>0</v>
       </c>
       <c r="K33">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="N33">
+      <c r="U33">
         <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="P33">
-        <v>4</v>
-      </c>
-      <c r="R33">
-        <f>COUNTIF(Q5:Q7,"&gt;"&amp;$H$19)+COUNTIF(Q5:Q7,"&lt;"&amp;$H$20)</f>
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f>COUNTIF(Q5:Q9,"&gt;"&amp;$H$21)+COUNTIF(Q5:Q9,"&lt;"&amp;$H$22)</f>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f>MAX(COUNTIF(Q5:Q12,"&gt;"&amp;$H$16),COUNTIF(Q5:Q12,"&lt;"&amp;$H$16))</f>
-        <v>7</v>
-      </c>
-      <c r="U33">
-        <f>MAX(IF(U5&gt;U6,1,0)+IF(U6&gt;U7,1,0)+IF(U7&gt;U8,1,0)+IF(U8&gt;U9,1,0)+IF(U9&gt;U10,1,0),IF(U5&lt;U6,1,0)+IF(U6&lt;U7,1,0)+IF(U7&lt;U8,1,0)+IF(U8&lt;U9,1,0)+IF(U9&lt;U10,1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="V33">
-        <f>MAX(IF(U5&gt;U6,1,0)+IF(U6&lt;U7,1,0)+IF(U7&gt;U8,1,0)+IF(U8&lt;U9,1,0)+IF(U9&gt;U10,1,0)+IF(U10&lt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&gt;U18,1,0),IF(U5&lt;U6,1,0)+IF(U6&gt;U7,1,0)+IF(U7&lt;U8,1,0)+IF(U8&gt;U9,1,0)+IF(U9&lt;U10,1,0)+IF(U10&gt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&lt;U18,1,0))</f>
-        <v>10</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="X33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -44604,58 +44604,58 @@
         <v>0</v>
       </c>
       <c r="K34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="N34">
+      <c r="U34">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="V34">
         <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="P34">
-        <v>5</v>
-      </c>
-      <c r="R34">
-        <f>COUNTIF(Q6:Q8,"&gt;"&amp;$H$19)+COUNTIF(Q6:Q8,"&lt;"&amp;$H$20)</f>
+        <v>9</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S34">
-        <f>COUNTIF(Q6:Q10,"&gt;"&amp;$H$21)+COUNTIF(Q6:Q10,"&lt;"&amp;$H$22)</f>
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <f>MAX(COUNTIF(Q6:Q13,"&gt;"&amp;$H$16),COUNTIF(Q6:Q13,"&lt;"&amp;$H$16))</f>
-        <v>6</v>
-      </c>
-      <c r="U34">
-        <f>MAX(IF(U6&gt;U7,1,0)+IF(U7&gt;U8,1,0)+IF(U8&gt;U9,1,0)+IF(U9&gt;U10,1,0)+IF(U10&gt;U11,1,0),IF(U6&lt;U7,1,0)+IF(U7&lt;U8,1,0)+IF(U8&lt;U9,1,0)+IF(U9&lt;U10,1,0)+IF(U10&lt;U11,1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="V34">
-        <f>MAX(IF(U6&gt;U7,1,0)+IF(U7&lt;U8,1,0)+IF(U8&gt;U9,1,0)+IF(U9&lt;U10,1,0)+IF(U10&gt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&gt;U19,1,0),IF(U6&lt;U7,1,0)+IF(U7&gt;U8,1,0)+IF(U8&lt;U9,1,0)+IF(U9&gt;U10,1,0)+IF(U10&lt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&lt;U19,1,0))</f>
-        <v>9</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="X34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -44688,58 +44688,58 @@
         <v>0</v>
       </c>
       <c r="K35">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="N35">
+      <c r="U35">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="V35">
         <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="P35">
-        <v>6</v>
-      </c>
-      <c r="R35">
-        <f>COUNTIF(Q7:Q9,"&gt;"&amp;$H$19)+COUNTIF(Q7:Q9,"&lt;"&amp;$H$20)</f>
+        <v>8</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S35">
-        <f>COUNTIF(Q7:Q11,"&gt;"&amp;$H$21)+COUNTIF(Q7:Q11,"&lt;"&amp;$H$22)</f>
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <f>MAX(COUNTIF(Q7:Q14,"&gt;"&amp;$H$16),COUNTIF(Q7:Q14,"&lt;"&amp;$H$16))</f>
-        <v>6</v>
-      </c>
-      <c r="U35">
-        <f>MAX(IF(U7&gt;U8,1,0)+IF(U8&gt;U9,1,0)+IF(U9&gt;U10,1,0)+IF(U10&gt;U11,1,0)+IF(U11&gt;U12,1,0),IF(U7&lt;U8,1,0)+IF(U8&lt;U9,1,0)+IF(U9&lt;U10,1,0)+IF(U10&lt;U11,1,0)+IF(U11&lt;U12,1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="V35">
-        <f>MAX(IF(U7&gt;U8,1,0)+IF(U8&lt;U9,1,0)+IF(U9&gt;U10,1,0)+IF(U10&lt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&gt;U20,1,0),IF(U7&lt;U8,1,0)+IF(U8&gt;U9,1,0)+IF(U9&lt;U10,1,0)+IF(U10&gt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&lt;U20,1,0))</f>
-        <v>8</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="X35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -44772,58 +44772,58 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="L36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="M36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="N36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="P36">
         <v>7</v>
       </c>
       <c r="R36">
-        <f>COUNTIF(Q8:Q10,"&gt;"&amp;$H$19)+COUNTIF(Q8:Q10,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S36">
-        <f>COUNTIF(Q8:Q12,"&gt;"&amp;$H$21)+COUNTIF(Q8:Q12,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T36">
-        <f>MAX(COUNTIF(Q8:Q15,"&gt;"&amp;$H$16),COUNTIF(Q8:Q15,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="U36">
-        <f>MAX(IF(U8&gt;U9,1,0)+IF(U9&gt;U10,1,0)+IF(U10&gt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&gt;U13,1,0),IF(U8&lt;U9,1,0)+IF(U9&lt;U10,1,0)+IF(U10&lt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&lt;U13,1,0))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V36">
-        <f>MAX(IF(U8&gt;U9,1,0)+IF(U9&lt;U10,1,0)+IF(U10&gt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&lt;U20,1,0)+IF(U20&gt;U21,1,0),IF(U8&lt;U9,1,0)+IF(U9&gt;U10,1,0)+IF(U10&lt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&gt;U20,1,0)+IF(U20&lt;U21,1,0))</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="W36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -44856,58 +44856,58 @@
         <v>1</v>
       </c>
       <c r="K37">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="P37">
+        <v>8</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="N37">
+      <c r="U37">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O37">
+      <c r="V37">
         <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="P37">
         <v>8</v>
       </c>
-      <c r="R37">
-        <f>COUNTIF(Q9:Q11,"&gt;"&amp;$H$19)+COUNTIF(Q9:Q11,"&lt;"&amp;$H$20)</f>
+      <c r="W37">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S37">
-        <f>COUNTIF(Q9:Q13,"&gt;"&amp;$H$21)+COUNTIF(Q9:Q13,"&lt;"&amp;$H$22)</f>
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <f>MAX(COUNTIF(Q9:Q16,"&gt;"&amp;$H$16),COUNTIF(Q9:Q16,"&lt;"&amp;$H$16))</f>
-        <v>7</v>
-      </c>
-      <c r="U37">
-        <f>MAX(IF(U9&gt;U10,1,0)+IF(U10&gt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&gt;U14,1,0),IF(U9&lt;U10,1,0)+IF(U10&lt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&lt;U14,1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="V37">
-        <f>MAX(IF(U9&gt;U10,1,0)+IF(U10&lt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&gt;U20,1,0)+IF(U20&lt;U21,1,0)+IF(U21&gt;U22,1,0),IF(U9&lt;U10,1,0)+IF(U10&gt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&lt;U20,1,0)+IF(U20&gt;U21,1,0)+IF(U21&lt;U22,1,0))</f>
-        <v>8</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="X37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -44940,58 +44940,58 @@
         <v>1</v>
       </c>
       <c r="K38">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="P38">
+        <v>9</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="U38">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O38">
+      <c r="V38">
         <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="P38">
-        <v>9</v>
-      </c>
-      <c r="R38">
-        <f>COUNTIF(Q10:Q12,"&gt;"&amp;$H$19)+COUNTIF(Q10:Q12,"&lt;"&amp;$H$20)</f>
+        <v>8</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S38">
-        <f>COUNTIF(Q10:Q14,"&gt;"&amp;$H$21)+COUNTIF(Q10:Q14,"&lt;"&amp;$H$22)</f>
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <f>MAX(COUNTIF(Q10:Q17,"&gt;"&amp;$H$16),COUNTIF(Q10:Q17,"&lt;"&amp;$H$16))</f>
-        <v>6</v>
-      </c>
-      <c r="U38">
-        <f>MAX(IF(U10&gt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&gt;U15,1,0),IF(U10&lt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&lt;U15,1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="V38">
-        <f>MAX(IF(U10&gt;U11,1,0)+IF(U11&lt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&lt;U20,1,0)+IF(U20&gt;U21,1,0)+IF(U21&lt;U22,1,0)+IF(U22&gt;U23,1,0),IF(U10&lt;U11,1,0)+IF(U11&gt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&gt;U20,1,0)+IF(U20&lt;U21,1,0)+IF(U21&gt;U22,1,0)+IF(U22&lt;U23,1,0))</f>
-        <v>8</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="X38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -45024,58 +45024,58 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="L39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="N39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="O39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="P39">
         <v>10</v>
       </c>
       <c r="R39">
-        <f>COUNTIF(Q11:Q13,"&gt;"&amp;$H$19)+COUNTIF(Q11:Q13,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S39">
-        <f>COUNTIF(Q11:Q15,"&gt;"&amp;$H$21)+COUNTIF(Q11:Q15,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T39">
-        <f>MAX(COUNTIF(Q11:Q18,"&gt;"&amp;$H$16),COUNTIF(Q11:Q18,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="U39">
-        <f>MAX(IF(U11&gt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&gt;U16,1,0),IF(U11&lt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&lt;U16,1,0))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V39">
-        <f>MAX(IF(U11&gt;U12,1,0)+IF(U12&lt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&gt;U20,1,0)+IF(U20&lt;U21,1,0)+IF(U21&gt;U22,1,0)+IF(U22&lt;U23,1,0)+IF(U23&gt;U24,1,0),IF(U11&lt;U12,1,0)+IF(U12&gt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&lt;U20,1,0)+IF(U20&gt;U21,1,0)+IF(U21&lt;U22,1,0)+IF(U22&gt;U23,1,0)+IF(U23&lt;U24,1,0))</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="W39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -45108,58 +45108,58 @@
         <v>2</v>
       </c>
       <c r="K40">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="P40">
+        <v>11</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="N40">
+        <v>6</v>
+      </c>
+      <c r="U40">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O40">
+      <c r="V40">
         <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="P40">
-        <v>11</v>
-      </c>
-      <c r="R40">
-        <f>COUNTIF(Q12:Q14,"&gt;"&amp;$H$19)+COUNTIF(Q12:Q14,"&lt;"&amp;$H$20)</f>
+        <v>7</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S40">
-        <f>COUNTIF(Q12:Q16,"&gt;"&amp;$H$21)+COUNTIF(Q12:Q16,"&lt;"&amp;$H$22)</f>
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <f>MAX(COUNTIF(Q12:Q19,"&gt;"&amp;$H$16),COUNTIF(Q12:Q19,"&lt;"&amp;$H$16))</f>
-        <v>6</v>
-      </c>
-      <c r="U40">
-        <f>MAX(IF(U12&gt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&gt;U17,1,0),IF(U12&lt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&lt;U17,1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="V40">
-        <f>MAX(IF(U12&gt;U13,1,0)+IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&lt;U20,1,0)+IF(U20&gt;U21,1,0)+IF(U21&lt;U22,1,0)+IF(U22&gt;U23,1,0)+IF(U23&lt;U24,1,0)+IF(U24&gt;U25,1,0),IF(U12&lt;U13,1,0)+IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&gt;U20,1,0)+IF(U20&lt;U21,1,0)+IF(U21&gt;U22,1,0)+IF(U22&lt;U23,1,0)+IF(U23&gt;U24,1,0)+IF(U24&lt;U25,1,0))</f>
-        <v>7</v>
-      </c>
-      <c r="W40">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="X40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -45192,58 +45192,58 @@
         <v>2</v>
       </c>
       <c r="K41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="L41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="N41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="O41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="P41">
         <v>12</v>
       </c>
       <c r="R41">
-        <f>COUNTIF(Q13:Q15,"&gt;"&amp;$H$19)+COUNTIF(Q13:Q15,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S41">
-        <f>COUNTIF(Q13:Q17,"&gt;"&amp;$H$21)+COUNTIF(Q13:Q17,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T41">
-        <f>MAX(COUNTIF(Q13:Q20,"&gt;"&amp;$H$16),COUNTIF(Q13:Q20,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="U41">
-        <f>MAX(IF(U13&gt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&gt;U18,1,0),IF(U13&lt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&lt;U18,1,0))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V41">
-        <f>MAX(IF(U13&gt;U14,1,0)+IF(U14&lt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&gt;U20,1,0)+IF(U20&lt;U21,1,0)+IF(U21&gt;U22,1,0)+IF(U22&lt;U23,1,0)+IF(U23&gt;U24,1,0)+IF(U24&lt;U25,1,0)+IF(U25&gt;U26,1,0),IF(U13&lt;U14,1,0)+IF(U14&gt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&lt;U20,1,0)+IF(U20&gt;U21,1,0)+IF(U21&lt;U22,1,0)+IF(U22&gt;U23,1,0)+IF(U23&lt;U24,1,0)+IF(U24&gt;U25,1,0)+IF(U25&lt;U26,1,0))</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="W41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -45276,58 +45276,58 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="L42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="N42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="P42">
         <v>13</v>
       </c>
       <c r="R42">
-        <f>COUNTIF(Q14:Q16,"&gt;"&amp;$H$19)+COUNTIF(Q14:Q16,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S42">
-        <f>COUNTIF(Q14:Q18,"&gt;"&amp;$H$21)+COUNTIF(Q14:Q18,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T42">
-        <f>MAX(COUNTIF(Q14:Q21,"&gt;"&amp;$H$16),COUNTIF(Q14:Q21,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="U42">
-        <f>MAX(IF(U14&gt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&gt;U19,1,0),IF(U14&lt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&lt;U19,1,0))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V42">
-        <f>MAX(IF(U14&gt;U15,1,0)+IF(U15&lt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&lt;U20,1,0)+IF(U20&gt;U21,1,0)+IF(U21&lt;U22,1,0)+IF(U22&gt;U23,1,0)+IF(U23&lt;U24,1,0)+IF(U24&gt;U25,1,0)+IF(U25&lt;U26,1,0)+IF(U26&gt;U27,1,0),IF(U14&lt;U15,1,0)+IF(U15&gt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&gt;U20,1,0)+IF(U20&lt;U21,1,0)+IF(U21&gt;U22,1,0)+IF(U22&lt;U23,1,0)+IF(U23&gt;U24,1,0)+IF(U24&lt;U25,1,0)+IF(U25&gt;U26,1,0)+IF(U26&lt;U27,1,0))</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="W42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -45360,58 +45360,58 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="L43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="N43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="P43">
         <v>14</v>
       </c>
       <c r="R43">
-        <f>COUNTIF(Q15:Q17,"&gt;"&amp;$H$19)+COUNTIF(Q15:Q17,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f>COUNTIF(Q15:Q19,"&gt;"&amp;$H$21)+COUNTIF(Q15:Q19,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T43">
-        <f>MAX(COUNTIF(Q15:Q22,"&gt;"&amp;$H$16),COUNTIF(Q15:Q22,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="U43">
-        <f>MAX(IF(U15&gt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&gt;U20,1,0),IF(U15&lt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&lt;U20,1,0))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V43">
-        <f>MAX(IF(U15&gt;U16,1,0)+IF(U16&lt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&gt;U20,1,0)+IF(U20&lt;U21,1,0)+IF(U21&gt;U22,1,0)+IF(U22&lt;U23,1,0)+IF(U23&gt;U24,1,0)+IF(U24&lt;U25,1,0)+IF(U25&gt;U26,1,0)+IF(U26&lt;U27,1,0)+IF(U27&gt;U28,1,0),IF(U15&lt;U16,1,0)+IF(U16&gt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&lt;U20,1,0)+IF(U20&gt;U21,1,0)+IF(U21&lt;U22,1,0)+IF(U22&gt;U23,1,0)+IF(U23&lt;U24,1,0)+IF(U24&gt;U25,1,0)+IF(U25&lt;U26,1,0)+IF(U26&gt;U27,1,0)+IF(U27&lt;U28,1,0))</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="W43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -45444,58 +45444,58 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="L44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="N44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="P44">
         <v>15</v>
       </c>
       <c r="R44">
-        <f>COUNTIF(Q16:Q18,"&gt;"&amp;$H$19)+COUNTIF(Q16:Q18,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S44">
-        <f>COUNTIF(Q16:Q20,"&gt;"&amp;$H$21)+COUNTIF(Q16:Q20,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T44">
-        <f>MAX(COUNTIF(Q16:Q23,"&gt;"&amp;$H$16),COUNTIF(Q16:Q23,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="U44">
-        <f>MAX(IF(U16&gt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&gt;U20,1,0)+IF(U20&gt;U21,1,0),IF(U16&lt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&lt;U20,1,0)+IF(U20&lt;U21,1,0))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V44">
-        <f>MAX(IF(U16&gt;U17,1,0)+IF(U17&lt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&lt;U20,1,0)+IF(U20&gt;U21,1,0)+IF(U21&lt;U22,1,0)+IF(U22&gt;U23,1,0)+IF(U23&lt;U24,1,0)+IF(U24&gt;U25,1,0)+IF(U25&lt;U26,1,0)+IF(U26&gt;U27,1,0)+IF(U27&lt;U28,1,0)+IF(U28&gt;U29,1,0),IF(U16&lt;U17,1,0)+IF(U17&gt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&gt;U20,1,0)+IF(U20&lt;U21,1,0)+IF(U21&gt;U22,1,0)+IF(U22&lt;U23,1,0)+IF(U23&gt;U24,1,0)+IF(U24&lt;U25,1,0)+IF(U25&gt;U26,1,0)+IF(U26&lt;U27,1,0)+IF(U27&gt;U28,1,0)+IF(U28&lt;U29,1,0))</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="W44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -45528,42 +45528,42 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="L45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="N45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="P45">
         <v>16</v>
       </c>
       <c r="R45">
-        <f>COUNTIF(Q17:Q19,"&gt;"&amp;$H$19)+COUNTIF(Q17:Q19,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S45">
-        <f>COUNTIF(Q17:Q21,"&gt;"&amp;$H$21)+COUNTIF(Q17:Q21,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T45">
-        <f>MAX(COUNTIF(Q17:Q24,"&gt;"&amp;$H$16),COUNTIF(Q17:Q24,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="U45">
-        <f>MAX(IF(U17&gt;U18,1,0)+IF(U18&gt;U19,1,0)+IF(U19&gt;U20,1,0)+IF(U20&gt;U21,1,0)+IF(U21&gt;U22,1,0),IF(U17&lt;U18,1,0)+IF(U18&lt;U19,1,0)+IF(U19&lt;U20,1,0)+IF(U20&lt;U21,1,0)+IF(U21&lt;U22,1,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V45">
@@ -45571,15 +45571,15 @@
         <v>6</v>
       </c>
       <c r="W45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -45612,42 +45612,42 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="L46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="N46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="P46">
         <v>17</v>
       </c>
       <c r="R46">
-        <f>COUNTIF(Q18:Q20,"&gt;"&amp;$H$19)+COUNTIF(Q18:Q20,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S46">
-        <f>COUNTIF(Q18:Q22,"&gt;"&amp;$H$21)+COUNTIF(Q18:Q22,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T46">
-        <f>MAX(COUNTIF(Q18:Q25,"&gt;"&amp;$H$16),COUNTIF(Q18:Q25,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="U46">
-        <f>MAX(IF(U18&gt;U19,1,0)+IF(U19&gt;U20,1,0)+IF(U20&gt;U21,1,0)+IF(U21&gt;U22,1,0)+IF(U22&gt;U23,1,0),IF(U18&lt;U19,1,0)+IF(U19&lt;U20,1,0)+IF(U20&lt;U21,1,0)+IF(U21&lt;U22,1,0)+IF(U22&lt;U23,1,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V46">
@@ -45655,15 +45655,15 @@
         <v>5</v>
       </c>
       <c r="W46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -45696,42 +45696,42 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="L47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="N47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="P47">
         <v>18</v>
       </c>
       <c r="R47">
-        <f>COUNTIF(Q19:Q21,"&gt;"&amp;$H$19)+COUNTIF(Q19:Q21,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S47">
-        <f>COUNTIF(Q19:Q23,"&gt;"&amp;$H$21)+COUNTIF(Q19:Q23,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T47">
-        <f>MAX(COUNTIF(Q19:Q26,"&gt;"&amp;$H$16),COUNTIF(Q19:Q26,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="U47">
-        <f>MAX(IF(U19&gt;U20,1,0)+IF(U20&gt;U21,1,0)+IF(U21&gt;U22,1,0)+IF(U22&gt;U23,1,0)+IF(U23&gt;U24,1,0),IF(U19&lt;U20,1,0)+IF(U20&lt;U21,1,0)+IF(U21&lt;U22,1,0)+IF(U22&lt;U23,1,0)+IF(U23&lt;U24,1,0))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V47">
@@ -45739,15 +45739,15 @@
         <v>5</v>
       </c>
       <c r="W47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -45780,42 +45780,42 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="L48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="N48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="P48">
         <v>19</v>
       </c>
       <c r="R48">
-        <f>COUNTIF(Q20:Q22,"&gt;"&amp;$H$19)+COUNTIF(Q20:Q22,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S48">
-        <f>COUNTIF(Q20:Q24,"&gt;"&amp;$H$21)+COUNTIF(Q20:Q24,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T48">
-        <f>MAX(COUNTIF(Q20:Q27,"&gt;"&amp;$H$16),COUNTIF(Q20:Q27,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="U48">
-        <f>MAX(IF(U20&gt;U21,1,0)+IF(U21&gt;U22,1,0)+IF(U22&gt;U23,1,0)+IF(U23&gt;U24,1,0)+IF(U24&gt;U25,1,0),IF(U20&lt;U21,1,0)+IF(U21&lt;U22,1,0)+IF(U22&lt;U23,1,0)+IF(U23&lt;U24,1,0)+IF(U24&lt;U25,1,0))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V48">
@@ -45823,15 +45823,15 @@
         <v>5</v>
       </c>
       <c r="W48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -45864,42 +45864,42 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="L49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="N49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="P49">
         <v>20</v>
       </c>
       <c r="R49">
-        <f>COUNTIF(Q21:Q23,"&gt;"&amp;$H$19)+COUNTIF(Q21:Q23,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S49">
-        <f>COUNTIF(Q21:Q25,"&gt;"&amp;$H$21)+COUNTIF(Q21:Q25,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T49">
-        <f>MAX(COUNTIF(Q21:Q28,"&gt;"&amp;$H$16),COUNTIF(Q21:Q28,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="U49">
-        <f>MAX(IF(U21&gt;U22,1,0)+IF(U22&gt;U23,1,0)+IF(U23&gt;U24,1,0)+IF(U24&gt;U25,1,0)+IF(U25&gt;U26,1,0),IF(U21&lt;U22,1,0)+IF(U22&lt;U23,1,0)+IF(U23&lt;U24,1,0)+IF(U24&lt;U25,1,0)+IF(U25&lt;U26,1,0))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V49">
@@ -45907,15 +45907,15 @@
         <v>5</v>
       </c>
       <c r="W49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -45948,42 +45948,42 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="N50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="P50">
         <v>21</v>
       </c>
       <c r="R50">
-        <f>COUNTIF(Q22:Q24,"&gt;"&amp;$H$19)+COUNTIF(Q22:Q24,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S50">
-        <f>COUNTIF(Q22:Q26,"&gt;"&amp;$H$21)+COUNTIF(Q22:Q26,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T50">
-        <f>MAX(COUNTIF(Q22:Q29,"&gt;"&amp;$H$16),COUNTIF(Q22:Q29,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="U50">
-        <f>MAX(IF(U22&gt;U23,1,0)+IF(U23&gt;U24,1,0)+IF(U24&gt;U25,1,0)+IF(U25&gt;U26,1,0)+IF(U26&gt;U27,1,0),IF(U22&lt;U23,1,0)+IF(U23&lt;U24,1,0)+IF(U24&lt;U25,1,0)+IF(U25&lt;U26,1,0)+IF(U26&lt;U27,1,0))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V50">
@@ -45991,15 +45991,15 @@
         <v>5</v>
       </c>
       <c r="W50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -46032,42 +46032,42 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="N51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="P51">
         <v>22</v>
       </c>
       <c r="R51">
-        <f>COUNTIF(Q23:Q25,"&gt;"&amp;$H$19)+COUNTIF(Q23:Q25,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S51">
-        <f>COUNTIF(Q23:Q27,"&gt;"&amp;$H$21)+COUNTIF(Q23:Q27,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T51">
-        <f>MAX(COUNTIF(Q23:Q30,"&gt;"&amp;$H$16),COUNTIF(Q23:Q30,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="U51">
-        <f>MAX(IF(U23&gt;U24,1,0)+IF(U24&gt;U25,1,0)+IF(U25&gt;U26,1,0)+IF(U26&gt;U27,1,0)+IF(U27&gt;U28,1,0),IF(U23&lt;U24,1,0)+IF(U24&lt;U25,1,0)+IF(U25&lt;U26,1,0)+IF(U26&lt;U27,1,0)+IF(U27&lt;U28,1,0))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V51">
@@ -46075,15 +46075,15 @@
         <v>5</v>
       </c>
       <c r="W51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -46116,42 +46116,42 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="N52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="O52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="P52">
         <v>23</v>
       </c>
       <c r="R52">
-        <f>COUNTIF(Q24:Q26,"&gt;"&amp;$H$19)+COUNTIF(Q24:Q26,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S52">
-        <f>COUNTIF(Q24:Q28,"&gt;"&amp;$H$21)+COUNTIF(Q24:Q28,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T52">
-        <f>MAX(COUNTIF(Q24:Q31,"&gt;"&amp;$H$16),COUNTIF(Q24:Q31,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="U52">
-        <f>MAX(IF(U24&gt;U25,1,0)+IF(U25&gt;U26,1,0)+IF(U26&gt;U27,1,0)+IF(U27&gt;U28,1,0)+IF(U28&gt;U29,1,0),IF(U24&lt;U25,1,0)+IF(U25&lt;U26,1,0)+IF(U26&lt;U27,1,0)+IF(U27&lt;U28,1,0)+IF(U28&lt;U29,1,0))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V52">
@@ -46159,15 +46159,15 @@
         <v>5</v>
       </c>
       <c r="W52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -46200,38 +46200,38 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="N53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="O53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="P53">
         <v>24</v>
       </c>
       <c r="R53">
-        <f>COUNTIF(Q25:Q27,"&gt;"&amp;$H$19)+COUNTIF(Q25:Q27,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S53">
-        <f>COUNTIF(Q25:Q29,"&gt;"&amp;$H$21)+COUNTIF(Q25:Q29,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T53">
-        <f>MAX(COUNTIF(Q25:Q32,"&gt;"&amp;$H$16),COUNTIF(Q25:Q32,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="U53">
@@ -46243,15 +46243,15 @@
         <v>4</v>
       </c>
       <c r="W53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -46284,38 +46284,38 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="M54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="N54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="O54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="P54">
         <v>25</v>
       </c>
       <c r="R54">
-        <f>COUNTIF(Q26:Q28,"&gt;"&amp;$H$19)+COUNTIF(Q26:Q28,"&lt;"&amp;$H$20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S54">
-        <f>COUNTIF(Q26:Q30,"&gt;"&amp;$H$21)+COUNTIF(Q26:Q30,"&lt;"&amp;$H$22)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T54">
-        <f>MAX(COUNTIF(Q26:Q33,"&gt;"&amp;$H$16),COUNTIF(Q26:Q33,"&lt;"&amp;$H$16))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="U54">
@@ -46327,15 +46327,15 @@
         <v>4</v>
       </c>
       <c r="W54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -46357,7 +46357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -46379,7 +46379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -46401,7 +46401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -46423,7 +46423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -46445,7 +46445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -46467,7 +46467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW8/hw_8.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW8/hw_8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E47C73-307B-4E10-BBA3-486F2BED8D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4C2969-44D8-482D-8C2B-560D77D4A2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{5CAD4C58-2065-4908-83C9-FEAE55A7EDD1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5CAD4C58-2065-4908-83C9-FEAE55A7EDD1}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題g" sheetId="1" r:id="rId1"/>
@@ -17199,16 +17199,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>688975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>612775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17237,16 +17237,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17811,19 +17811,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665642DB-EC5C-4F45-B60E-07B6443DDCF0}">
   <dimension ref="A1:X87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="7" width="14.36328125" customWidth="1"/>
+    <col min="6" max="7" width="14.375" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="23" max="23" width="14.6328125" customWidth="1"/>
-    <col min="24" max="24" width="12.90625" customWidth="1"/>
+    <col min="23" max="23" width="14.625" customWidth="1"/>
+    <col min="24" max="24" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -17843,7 +17843,7 @@
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -17907,7 +17907,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>352</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>354</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>12.106521008403396</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>352</v>
       </c>
@@ -18142,7 +18142,7 @@
         <v>3.4794426289857685</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>355</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>360.43832788695732</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>351</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>339.56167211304268</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>350</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>0.99999999869121214</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>354</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>1.7669322164348428E-17</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>352</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>0.99999999869121214</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>354</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>764065769.34181535</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>352</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>353</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>351</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>352</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>352</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>352</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>351</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>352</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>338</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>346</v>
       </c>
@@ -19280,7 +19280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>344</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>345</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>346</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>348</v>
       </c>
@@ -19540,7 +19540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>348</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>348</v>
       </c>
@@ -19670,7 +19670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>344</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>337</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>344</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>345</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>344</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>345</v>
       </c>
@@ -20060,7 +20060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>349</v>
       </c>
@@ -20125,7 +20125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>349</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>348</v>
       </c>
@@ -20255,7 +20255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>348</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>354</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>346</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>350</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>342</v>
       </c>
@@ -20580,7 +20580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>349</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>349</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>349</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>348</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>349</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>339</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>350</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>349</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>343</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>342</v>
       </c>
@@ -20897,7 +20897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>350</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>350</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>355</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>349</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>351</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>350</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>345</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>345</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>348</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>348</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>352</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>350</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>350</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>348</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>348</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>351</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>347</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>349</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>347</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>347</v>
       </c>
@@ -21457,7 +21457,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>347</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>349</v>
       </c>
@@ -21513,7 +21513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>338</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>348</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>348</v>
       </c>
@@ -21597,7 +21597,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>346</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>348</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>346</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>350</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>350</v>
       </c>
@@ -21737,7 +21737,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>350</v>
       </c>
@@ -21765,7 +21765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>348</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>350</v>
       </c>
@@ -21821,7 +21821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>345</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>351</v>
       </c>
@@ -21877,7 +21877,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>349</v>
       </c>
@@ -21924,14 +21924,14 @@
       <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="26" width="9" style="11"/>
-    <col min="27" max="27" width="15.6328125" style="11" customWidth="1"/>
+    <col min="27" max="27" width="15.625" style="11" customWidth="1"/>
     <col min="28" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
         <v>50</v>
       </c>
@@ -22020,7 +22020,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>75</v>
       </c>
@@ -22104,7 +22104,7 @@
         <v>15.619047619047619</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>76</v>
       </c>
@@ -22188,7 +22188,7 @@
         <v>16.61904761904762</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>77</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>78</v>
       </c>
@@ -22377,7 +22377,7 @@
         <v>16.760000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>79</v>
       </c>
@@ -22473,7 +22473,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>80</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>81</v>
       </c>
@@ -22632,7 +22632,7 @@
         <v>16.578947368421051</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>82</v>
       </c>
@@ -22728,7 +22728,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>83</v>
       </c>
@@ -22824,7 +22824,7 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>84</v>
       </c>
@@ -22920,7 +22920,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>85</v>
       </c>
@@ -23007,7 +23007,7 @@
         <v>16.59090909090909</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>86</v>
       </c>
@@ -23088,7 +23088,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>87</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>88</v>
       </c>
@@ -23250,7 +23250,7 @@
         <v>16.45</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>89</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>15.291666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>90</v>
       </c>
@@ -23439,7 +23439,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>91</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>14.523809523809524</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
@@ -23619,7 +23619,7 @@
         <v>16.28</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>93</v>
       </c>
@@ -23712,7 +23712,7 @@
         <v>15.333333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>94</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>95</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>15.631578947368421</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>96</v>
       </c>
@@ -23982,7 +23982,7 @@
         <v>15.68</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>97</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>15.64</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>98</v>
       </c>
@@ -24174,7 +24174,7 @@
         <v>15.68</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>99</v>
       </c>
@@ -24264,7 +24264,7 @@
         <v>14.217391304347826</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>100</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>101</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>17.260869565217391</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>102</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>17.166666666666668</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>103</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>15.684210526315789</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>104</v>
       </c>
@@ -24687,7 +24687,7 @@
         <v>16.210526315789473</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>105</v>
       </c>
@@ -24780,7 +24780,7 @@
         <v>16.833333333333332</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>106</v>
       </c>
@@ -24861,7 +24861,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>107</v>
       </c>
@@ -24957,7 +24957,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>108</v>
       </c>
@@ -25044,7 +25044,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>109</v>
       </c>
@@ -25137,7 +25137,7 @@
         <v>15.625</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>110</v>
       </c>
@@ -25230,7 +25230,7 @@
         <v>15.083333333333334</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>111</v>
       </c>
@@ -25323,7 +25323,7 @@
         <v>15.541666666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>112</v>
       </c>
@@ -25407,7 +25407,7 @@
         <v>16.19047619047619</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>113</v>
       </c>
@@ -25488,7 +25488,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>114</v>
       </c>
@@ -25584,7 +25584,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>115</v>
       </c>
@@ -25680,7 +25680,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>116</v>
       </c>
@@ -25764,7 +25764,7 @@
         <v>16.238095238095237</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>117</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>118</v>
       </c>
@@ -25935,7 +25935,7 @@
         <v>15.727272727272727</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>119</v>
       </c>
@@ -26031,7 +26031,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>120</v>
       </c>
@@ -26124,7 +26124,7 @@
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>121</v>
       </c>
@@ -26211,7 +26211,7 @@
         <v>15.409090909090908</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>122</v>
       </c>
@@ -26298,7 +26298,7 @@
         <v>15.545454545454545</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>123</v>
       </c>
@@ -26382,7 +26382,7 @@
         <v>15.238095238095237</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>124</v>
       </c>
@@ -26478,7 +26478,7 @@
         <v>15.52</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>125</v>
       </c>
@@ -26556,7 +26556,7 @@
         <v>16.789473684210527</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
@@ -26652,7 +26652,7 @@
         <v>15.12</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>127</v>
       </c>
@@ -26736,7 +26736,7 @@
         <v>15.523809523809524</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>128</v>
       </c>
@@ -26832,7 +26832,7 @@
         <v>16.239999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>129</v>
       </c>
@@ -26925,7 +26925,7 @@
         <v>15.958333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>130</v>
       </c>
@@ -27012,7 +27012,7 @@
         <v>15.227272727272727</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>131</v>
       </c>
@@ -27108,7 +27108,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>132</v>
       </c>
@@ -27204,7 +27204,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>133</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>15.545454545454545</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>134</v>
       </c>
@@ -27369,7 +27369,7 @@
         <v>16.526315789473685</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>135</v>
       </c>
@@ -27453,7 +27453,7 @@
         <v>14.238095238095237</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>136</v>
       </c>
@@ -27543,7 +27543,7 @@
         <v>16.739130434782609</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>137</v>
       </c>
@@ -27627,7 +27627,7 @@
         <v>15.904761904761905</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>138</v>
       </c>
@@ -27708,7 +27708,7 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>139</v>
       </c>
@@ -27804,7 +27804,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>140</v>
       </c>
@@ -27882,7 +27882,7 @@
         <v>15.578947368421053</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>141</v>
       </c>
@@ -27978,7 +27978,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>142</v>
       </c>
@@ -28062,7 +28062,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>143</v>
       </c>
@@ -28152,7 +28152,7 @@
         <v>15.826086956521738</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>144</v>
       </c>
@@ -28239,7 +28239,7 @@
         <v>16.09090909090909</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>145</v>
       </c>
@@ -28326,7 +28326,7 @@
         <v>14.636363636363637</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>146</v>
       </c>
@@ -28407,7 +28407,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>147</v>
       </c>
@@ -28500,7 +28500,7 @@
         <v>16.958333333333332</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>148</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>149</v>
       </c>
@@ -28671,7 +28671,7 @@
         <v>15.619047619047619</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>150</v>
       </c>
@@ -28761,7 +28761,7 @@
         <v>21.434782608695652</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>151</v>
       </c>
@@ -28857,7 +28857,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>152</v>
       </c>
@@ -28944,7 +28944,7 @@
         <v>22.681818181818183</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>153</v>
       </c>
@@ -29040,7 +29040,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>154</v>
       </c>
@@ -29130,7 +29130,7 @@
         <v>22.826086956521738</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>155</v>
       </c>
@@ -29226,7 +29226,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>156</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>21.434782608695652</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>157</v>
       </c>
@@ -29412,7 +29412,7 @@
         <v>23.72</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>158</v>
       </c>
@@ -29508,7 +29508,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>159</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>20.958333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>160</v>
       </c>
@@ -29697,7 +29697,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>161</v>
       </c>
@@ -29793,7 +29793,7 @@
         <v>21.44</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>162</v>
       </c>
@@ -29883,7 +29883,7 @@
         <v>21.217391304347824</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>163</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>21.333333333333332</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>164</v>
       </c>
@@ -30057,7 +30057,7 @@
         <v>23.043478260869566</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>165</v>
       </c>
@@ -30138,7 +30138,7 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>166</v>
       </c>
@@ -30231,7 +30231,7 @@
         <v>21.125</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>167</v>
       </c>
@@ -30324,7 +30324,7 @@
         <v>20.958333333333332</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>168</v>
       </c>
@@ -30420,7 +30420,7 @@
         <v>21.76</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>169</v>
       </c>
@@ -30510,7 +30510,7 @@
         <v>21.478260869565219</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>170</v>
       </c>
@@ -30594,7 +30594,7 @@
         <v>24.19047619047619</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>171</v>
       </c>
@@ -30681,7 +30681,7 @@
         <v>21.454545454545453</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>172</v>
       </c>
@@ -30774,7 +30774,7 @@
         <v>21.291666666666668</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>173</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>174</v>
       </c>
@@ -30969,23 +30969,23 @@
       <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" customWidth="1"/>
-    <col min="17" max="17" width="18.36328125" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" customWidth="1"/>
-    <col min="19" max="19" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7265625" customWidth="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="17" max="17" width="18.375" customWidth="1"/>
+    <col min="18" max="18" width="18.875" customWidth="1"/>
+    <col min="19" max="19" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -31041,7 +31041,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31115,7 +31115,7 @@
         <v>236.07754903992827</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31170,7 +31170,7 @@
         <v>-1.0109817203116032</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -31237,7 +31237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -31311,7 +31311,7 @@
         <v>1.0000471957876937</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>3.8541062803853318E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -31421,7 +31421,7 @@
         <v>-0.82230830475131367</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -31476,7 +31476,7 @@
         <v>1.1940586561798707</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -31531,7 +31531,7 @@
         <v>-0.66017984223341264</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -31579,7 +31579,7 @@
         <v>-0.4483522462254963</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -31627,7 +31627,7 @@
         <v>0.65465474553770941</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -31675,7 +31675,7 @@
         <v>-1.9392436739288166</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -31723,7 +31723,7 @@
         <v>0.97601719757936622</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -31771,7 +31771,7 @@
         <v>-2.5462530802659127E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -31819,7 +31819,7 @@
         <v>-1.4309294225765534</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -31867,7 +31867,7 @@
         <v>-0.71029439624458368</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -31915,7 +31915,7 @@
         <v>-0.38008130120845057</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -31963,7 +31963,7 @@
         <v>-0.4096070721775642</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -32011,7 +32011,7 @@
         <v>0.84940884891215607</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -32059,7 +32059,7 @@
         <v>-0.12119152328456016</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -32107,7 +32107,7 @@
         <v>0.19271528267590399</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -32155,7 +32155,7 @@
         <v>-1.5167981277278302</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>1.3145295384844324</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -32251,7 +32251,7 @@
         <v>1.2660919229489929</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -32299,7 +32299,7 @@
         <v>-0.50177454030061241</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -32347,7 +32347,7 @@
         <v>-0.35353929819571533</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -32395,7 +32395,7 @@
         <v>6.6188049048795499</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>5.3034520850958016</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -32491,7 +32491,7 @@
         <v>7.9389479235678335</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -32539,7 +32539,7 @@
         <v>7.6588361236207838</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -32587,7 +32587,7 @@
         <v>8.2907420033388632</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -32635,7 +32635,7 @@
         <v>8.4606689877995027</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -32683,7 +32683,7 @@
         <v>6.6188049048795499</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -32731,7 +32731,7 @@
         <v>9.7636473920899185</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -32779,7 +32779,7 @@
         <v>9.4128455140117318</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -32827,7 +32827,7 @@
         <v>6.1762953635295599</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -32875,7 +32875,7 @@
         <v>7.2579196915314252</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -32923,7 +32923,7 @@
         <v>6.9071178134532385</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -32971,7 +32971,7 @@
         <v>6.3575647332452796</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -33019,7 +33019,7 @@
         <v>6.2079960496653905</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -33067,7 +33067,7 @@
         <v>8.5519821749731335</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -33115,7 +33115,7 @@
         <v>8.8785491250810225</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -33163,7 +33163,7 @@
         <v>6.3808871735537513</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -33211,7 +33211,7 @@
         <v>6.1762953635295599</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -33259,7 +33259,7 @@
         <v>7.308034245542598</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -33307,7 +33307,7 @@
         <v>6.6710529392064046</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -33355,7 +33355,7 @@
         <v>9.4887637235959446</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -33403,7 +33403,7 @@
         <v>6.4965459835396784</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -33451,7 +33451,7 @@
         <v>6.5854789835779428</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -33499,7 +33499,7 @@
         <v>8.4997341406462787</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -33558,21 +33558,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90415827-591C-4161-BAFC-FE38AB37CA9F}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" customWidth="1"/>
-    <col min="15" max="15" width="18.6328125" customWidth="1"/>
-    <col min="16" max="16" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="15" max="15" width="18.625" customWidth="1"/>
+    <col min="16" max="16" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -33622,7 +33622,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33688,7 +33688,7 @@
         <v>236.07754903992827</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -33735,7 +33735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -33794,7 +33794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -33860,7 +33860,7 @@
         <v>31.708046653523201</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -33907,7 +33907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -33954,7 +33954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -33998,7 +33998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -34038,7 +34038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -34078,7 +34078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -34118,7 +34118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -34198,7 +34198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -34238,7 +34238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -34318,7 +34318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -34358,7 +34358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -34398,7 +34398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -34478,7 +34478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -34518,7 +34518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -34558,7 +34558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -34598,7 +34598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -34638,7 +34638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -34678,7 +34678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -34718,7 +34718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -34758,7 +34758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -34838,7 +34838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -34878,7 +34878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -34918,7 +34918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -34958,7 +34958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -34998,7 +34998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -35078,7 +35078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -35118,7 +35118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -35158,7 +35158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -35198,7 +35198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -35238,7 +35238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -35278,7 +35278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -35318,7 +35318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -35358,7 +35358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -35398,7 +35398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -35438,7 +35438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -35478,7 +35478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -35558,7 +35558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -35598,7 +35598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -35638,7 +35638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -35678,7 +35678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -35733,18 +35733,18 @@
       <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" customWidth="1"/>
-    <col min="11" max="12" width="13.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="11" max="12" width="13.125" customWidth="1"/>
     <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -35814,7 +35814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -35945,7 +35945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -36052,7 +36052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -36126,7 +36126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -36232,7 +36232,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -36347,7 +36347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -36529,7 +36529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -36624,7 +36624,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -36846,7 +36846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -36957,7 +36957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -37068,7 +37068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -37179,7 +37179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -37290,7 +37290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -37409,7 +37409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -37536,7 +37536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -37663,7 +37663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -37790,7 +37790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -37917,7 +37917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -38044,7 +38044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -38171,7 +38171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -38298,7 +38298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -38425,7 +38425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -38552,7 +38552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -38679,7 +38679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -38806,7 +38806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -38933,7 +38933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -39060,7 +39060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -39187,7 +39187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -39314,7 +39314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -39441,7 +39441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -39568,7 +39568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -39695,7 +39695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -39822,7 +39822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -39949,7 +39949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -40076,7 +40076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -40203,7 +40203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -40330,7 +40330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -40457,7 +40457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -40584,7 +40584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -40711,7 +40711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -40739,7 +40739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -40767,7 +40767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -40795,7 +40795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -40823,7 +40823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -40851,7 +40851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -40879,7 +40879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -40907,7 +40907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -40935,7 +40935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -40963,7 +40963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -40991,7 +40991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -41047,7 +41047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -41075,7 +41075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -41103,7 +41103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -41131,7 +41131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -41159,7 +41159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -41187,7 +41187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -41215,7 +41215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -41243,7 +41243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -41271,7 +41271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -41299,7 +41299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -41327,7 +41327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -41355,7 +41355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -41383,7 +41383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -41411,7 +41411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -41439,7 +41439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -41467,7 +41467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -41495,7 +41495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -41523,7 +41523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -41551,7 +41551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -41579,7 +41579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -41607,7 +41607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -41635,7 +41635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -41663,7 +41663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -41691,7 +41691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -41719,7 +41719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -41747,7 +41747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -41775,7 +41775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -41803,7 +41803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -41831,7 +41831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -41859,7 +41859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -41887,7 +41887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -41915,7 +41915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -41943,7 +41943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -42061,13 +42061,13 @@
       <selection activeCell="Q28" sqref="Q28:X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="11.08984375" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" customWidth="1"/>
+    <col min="3" max="4" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -42130,7 +42130,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -42225,7 +42225,7 @@
         <v>LCL</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -42319,7 +42319,7 @@
         <v>333.35878376855794</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -42395,7 +42395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -42490,7 +42490,7 @@
         <v>LCL</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -42584,7 +42584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -42660,7 +42660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -42736,7 +42736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -42812,7 +42812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -42888,7 +42888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -42964,7 +42964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -43037,7 +43037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -43113,7 +43113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -43189,7 +43189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -43265,7 +43265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -43341,7 +43341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -43417,7 +43417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -43493,7 +43493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -43569,7 +43569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -43645,7 +43645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -43721,7 +43721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -43797,7 +43797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -43866,7 +43866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -43935,7 +43935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -44004,7 +44004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -44073,7 +44073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -44095,7 +44095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -44165,7 +44165,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -44235,7 +44235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -44319,7 +44319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -44403,7 +44403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -44487,7 +44487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -44571,7 +44571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -44655,7 +44655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -44739,7 +44739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -44823,7 +44823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -44907,7 +44907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -44991,7 +44991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -45075,7 +45075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -45159,7 +45159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -45243,7 +45243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -45327,7 +45327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -45411,7 +45411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -45495,7 +45495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -45579,7 +45579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -45663,7 +45663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -45747,7 +45747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -45831,7 +45831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -45915,7 +45915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -45999,7 +45999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -46083,7 +46083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -46167,7 +46167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -46251,7 +46251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -46335,7 +46335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -46357,7 +46357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -46379,7 +46379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -46401,7 +46401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -46423,7 +46423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -46445,7 +46445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -46467,7 +46467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW8/hw_8.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW8/hw_8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4C2969-44D8-482D-8C2B-560D77D4A2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EC3E0A-2759-42DA-8839-02E23EABDAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5CAD4C58-2065-4908-83C9-FEAE55A7EDD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5CAD4C58-2065-4908-83C9-FEAE55A7EDD1}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題g" sheetId="1" r:id="rId1"/>
@@ -17811,8 +17811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665642DB-EC5C-4F45-B60E-07B6443DDCF0}">
   <dimension ref="A1:X87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -30965,8 +30965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2AD65A-B4CA-4010-9C66-C18CB622E1F7}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -42057,7 +42057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE6E9B6-3496-4FF6-957F-2E2D39693857}">
   <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28:X29"/>
     </sheetView>
   </sheetViews>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW8/hw_8.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW8/hw_8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EC3E0A-2759-42DA-8839-02E23EABDAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B3DE84-58DE-4BAE-8751-F14944D37665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5CAD4C58-2065-4908-83C9-FEAE55A7EDD1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{5CAD4C58-2065-4908-83C9-FEAE55A7EDD1}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題g" sheetId="1" r:id="rId1"/>
@@ -17815,15 +17815,15 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="7" width="14.375" customWidth="1"/>
+    <col min="6" max="7" width="14.36328125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="23" max="23" width="14.625" customWidth="1"/>
-    <col min="24" max="24" width="12.875" customWidth="1"/>
+    <col min="23" max="23" width="14.6328125" customWidth="1"/>
+    <col min="24" max="24" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -17843,7 +17843,7 @@
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -17907,7 +17907,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>352</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>354</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>12.106521008403396</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>352</v>
       </c>
@@ -18142,7 +18142,7 @@
         <v>3.4794426289857685</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>355</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>360.43832788695732</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>351</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>339.56167211304268</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>350</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>0.99999999869121214</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>354</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>1.7669322164348428E-17</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>352</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>0.99999999869121214</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>354</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>764065769.34181535</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>352</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>353</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>351</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>352</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>352</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>352</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>351</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>352</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>338</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>346</v>
       </c>
@@ -19280,7 +19280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>344</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>345</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>346</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>348</v>
       </c>
@@ -19540,7 +19540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>348</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>348</v>
       </c>
@@ -19670,7 +19670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>344</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>337</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>344</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>345</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>344</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>345</v>
       </c>
@@ -20060,7 +20060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>349</v>
       </c>
@@ -20125,7 +20125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>349</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>348</v>
       </c>
@@ -20255,7 +20255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>348</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>354</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>346</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>350</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>342</v>
       </c>
@@ -20580,7 +20580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>349</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>349</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>349</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>348</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>349</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>339</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>350</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>349</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>343</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>342</v>
       </c>
@@ -20897,7 +20897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>350</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>350</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>355</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>349</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>351</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>350</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>345</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>345</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>348</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>348</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>352</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>350</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>350</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>348</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>348</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>351</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>347</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>349</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>347</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>347</v>
       </c>
@@ -21457,7 +21457,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>347</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>349</v>
       </c>
@@ -21513,7 +21513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>338</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>348</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>348</v>
       </c>
@@ -21597,7 +21597,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>346</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>348</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>346</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>350</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>350</v>
       </c>
@@ -21737,7 +21737,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>350</v>
       </c>
@@ -21765,7 +21765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>348</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>350</v>
       </c>
@@ -21821,7 +21821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>345</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>351</v>
       </c>
@@ -21877,7 +21877,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>349</v>
       </c>
@@ -21924,14 +21924,14 @@
       <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="26" width="9" style="11"/>
-    <col min="27" max="27" width="15.625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="15.6328125" style="11" customWidth="1"/>
     <col min="28" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B1" s="11" t="s">
         <v>50</v>
       </c>
@@ -22020,7 +22020,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>75</v>
       </c>
@@ -22104,7 +22104,7 @@
         <v>15.619047619047619</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>76</v>
       </c>
@@ -22188,7 +22188,7 @@
         <v>16.61904761904762</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>77</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>78</v>
       </c>
@@ -22377,7 +22377,7 @@
         <v>16.760000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>79</v>
       </c>
@@ -22473,7 +22473,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>80</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>81</v>
       </c>
@@ -22632,7 +22632,7 @@
         <v>16.578947368421051</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>82</v>
       </c>
@@ -22728,7 +22728,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>83</v>
       </c>
@@ -22824,7 +22824,7 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>84</v>
       </c>
@@ -22920,7 +22920,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>85</v>
       </c>
@@ -23007,7 +23007,7 @@
         <v>16.59090909090909</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>86</v>
       </c>
@@ -23088,7 +23088,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>87</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>88</v>
       </c>
@@ -23250,7 +23250,7 @@
         <v>16.45</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>89</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>15.291666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>90</v>
       </c>
@@ -23439,7 +23439,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>91</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>14.523809523809524</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
@@ -23619,7 +23619,7 @@
         <v>16.28</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>93</v>
       </c>
@@ -23712,7 +23712,7 @@
         <v>15.333333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>94</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>95</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>15.631578947368421</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>96</v>
       </c>
@@ -23982,7 +23982,7 @@
         <v>15.68</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>97</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>15.64</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>98</v>
       </c>
@@ -24174,7 +24174,7 @@
         <v>15.68</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>99</v>
       </c>
@@ -24264,7 +24264,7 @@
         <v>14.217391304347826</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>100</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>101</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>17.260869565217391</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>102</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>17.166666666666668</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>103</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>15.684210526315789</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>104</v>
       </c>
@@ -24687,7 +24687,7 @@
         <v>16.210526315789473</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>105</v>
       </c>
@@ -24780,7 +24780,7 @@
         <v>16.833333333333332</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>106</v>
       </c>
@@ -24861,7 +24861,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>107</v>
       </c>
@@ -24957,7 +24957,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>108</v>
       </c>
@@ -25044,7 +25044,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
         <v>109</v>
       </c>
@@ -25137,7 +25137,7 @@
         <v>15.625</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>110</v>
       </c>
@@ -25230,7 +25230,7 @@
         <v>15.083333333333334</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>111</v>
       </c>
@@ -25323,7 +25323,7 @@
         <v>15.541666666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
         <v>112</v>
       </c>
@@ -25407,7 +25407,7 @@
         <v>16.19047619047619</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
         <v>113</v>
       </c>
@@ -25488,7 +25488,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A41" s="11" t="s">
         <v>114</v>
       </c>
@@ -25584,7 +25584,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A42" s="11" t="s">
         <v>115</v>
       </c>
@@ -25680,7 +25680,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
         <v>116</v>
       </c>
@@ -25764,7 +25764,7 @@
         <v>16.238095238095237</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>117</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>118</v>
       </c>
@@ -25935,7 +25935,7 @@
         <v>15.727272727272727</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>119</v>
       </c>
@@ -26031,7 +26031,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>120</v>
       </c>
@@ -26124,7 +26124,7 @@
         <v>15.833333333333334</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
         <v>121</v>
       </c>
@@ -26211,7 +26211,7 @@
         <v>15.409090909090908</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
         <v>122</v>
       </c>
@@ -26298,7 +26298,7 @@
         <v>15.545454545454545</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>123</v>
       </c>
@@ -26382,7 +26382,7 @@
         <v>15.238095238095237</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>124</v>
       </c>
@@ -26478,7 +26478,7 @@
         <v>15.52</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>125</v>
       </c>
@@ -26556,7 +26556,7 @@
         <v>16.789473684210527</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
@@ -26652,7 +26652,7 @@
         <v>15.12</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>127</v>
       </c>
@@ -26736,7 +26736,7 @@
         <v>15.523809523809524</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>128</v>
       </c>
@@ -26832,7 +26832,7 @@
         <v>16.239999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>129</v>
       </c>
@@ -26925,7 +26925,7 @@
         <v>15.958333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>130</v>
       </c>
@@ -27012,7 +27012,7 @@
         <v>15.227272727272727</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>131</v>
       </c>
@@ -27108,7 +27108,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>132</v>
       </c>
@@ -27204,7 +27204,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>133</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>15.545454545454545</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>134</v>
       </c>
@@ -27369,7 +27369,7 @@
         <v>16.526315789473685</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>135</v>
       </c>
@@ -27453,7 +27453,7 @@
         <v>14.238095238095237</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>136</v>
       </c>
@@ -27543,7 +27543,7 @@
         <v>16.739130434782609</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A64" s="11" t="s">
         <v>137</v>
       </c>
@@ -27627,7 +27627,7 @@
         <v>15.904761904761905</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A65" s="11" t="s">
         <v>138</v>
       </c>
@@ -27708,7 +27708,7 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A66" s="11" t="s">
         <v>139</v>
       </c>
@@ -27804,7 +27804,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A67" s="11" t="s">
         <v>140</v>
       </c>
@@ -27882,7 +27882,7 @@
         <v>15.578947368421053</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
         <v>141</v>
       </c>
@@ -27978,7 +27978,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A69" s="11" t="s">
         <v>142</v>
       </c>
@@ -28062,7 +28062,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A70" s="11" t="s">
         <v>143</v>
       </c>
@@ -28152,7 +28152,7 @@
         <v>15.826086956521738</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A71" s="11" t="s">
         <v>144</v>
       </c>
@@ -28239,7 +28239,7 @@
         <v>16.09090909090909</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>145</v>
       </c>
@@ -28326,7 +28326,7 @@
         <v>14.636363636363637</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A73" s="11" t="s">
         <v>146</v>
       </c>
@@ -28407,7 +28407,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A74" s="11" t="s">
         <v>147</v>
       </c>
@@ -28500,7 +28500,7 @@
         <v>16.958333333333332</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A75" s="11" t="s">
         <v>148</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A76" s="11" t="s">
         <v>149</v>
       </c>
@@ -28671,7 +28671,7 @@
         <v>15.619047619047619</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A77" s="11" t="s">
         <v>150</v>
       </c>
@@ -28761,7 +28761,7 @@
         <v>21.434782608695652</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A78" s="11" t="s">
         <v>151</v>
       </c>
@@ -28857,7 +28857,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A79" s="11" t="s">
         <v>152</v>
       </c>
@@ -28944,7 +28944,7 @@
         <v>22.681818181818183</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A80" s="11" t="s">
         <v>153</v>
       </c>
@@ -29040,7 +29040,7 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A81" s="11" t="s">
         <v>154</v>
       </c>
@@ -29130,7 +29130,7 @@
         <v>22.826086956521738</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A82" s="11" t="s">
         <v>155</v>
       </c>
@@ -29226,7 +29226,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A83" s="11" t="s">
         <v>156</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>21.434782608695652</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A84" s="11" t="s">
         <v>157</v>
       </c>
@@ -29412,7 +29412,7 @@
         <v>23.72</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A85" s="11" t="s">
         <v>158</v>
       </c>
@@ -29508,7 +29508,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A86" s="11" t="s">
         <v>159</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>20.958333333333332</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A87" s="11" t="s">
         <v>160</v>
       </c>
@@ -29697,7 +29697,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A88" s="11" t="s">
         <v>161</v>
       </c>
@@ -29793,7 +29793,7 @@
         <v>21.44</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A89" s="11" t="s">
         <v>162</v>
       </c>
@@ -29883,7 +29883,7 @@
         <v>21.217391304347824</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A90" s="11" t="s">
         <v>163</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>21.333333333333332</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A91" s="11" t="s">
         <v>164</v>
       </c>
@@ -30057,7 +30057,7 @@
         <v>23.043478260869566</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A92" s="11" t="s">
         <v>165</v>
       </c>
@@ -30138,7 +30138,7 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A93" s="11" t="s">
         <v>166</v>
       </c>
@@ -30231,7 +30231,7 @@
         <v>21.125</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A94" s="11" t="s">
         <v>167</v>
       </c>
@@ -30324,7 +30324,7 @@
         <v>20.958333333333332</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A95" s="11" t="s">
         <v>168</v>
       </c>
@@ -30420,7 +30420,7 @@
         <v>21.76</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A96" s="11" t="s">
         <v>169</v>
       </c>
@@ -30510,7 +30510,7 @@
         <v>21.478260869565219</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A97" s="11" t="s">
         <v>170</v>
       </c>
@@ -30594,7 +30594,7 @@
         <v>24.19047619047619</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A98" s="11" t="s">
         <v>171</v>
       </c>
@@ -30681,7 +30681,7 @@
         <v>21.454545454545453</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A99" s="11" t="s">
         <v>172</v>
       </c>
@@ -30774,7 +30774,7 @@
         <v>21.291666666666668</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A100" s="11" t="s">
         <v>173</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A101" s="11" t="s">
         <v>174</v>
       </c>
@@ -30969,23 +30969,23 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="17" width="18.375" customWidth="1"/>
-    <col min="18" max="18" width="18.875" customWidth="1"/>
-    <col min="19" max="19" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.75" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" customWidth="1"/>
+    <col min="17" max="17" width="18.36328125" customWidth="1"/>
+    <col min="18" max="18" width="18.90625" customWidth="1"/>
+    <col min="19" max="19" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -31041,7 +31041,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31115,7 +31115,7 @@
         <v>236.07754903992827</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31170,7 +31170,7 @@
         <v>-1.0109817203116032</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -31237,7 +31237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -31311,7 +31311,7 @@
         <v>1.0000471957876937</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>3.8541062803853318E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -31421,7 +31421,7 @@
         <v>-0.82230830475131367</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -31476,7 +31476,7 @@
         <v>1.1940586561798707</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -31531,7 +31531,7 @@
         <v>-0.66017984223341264</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -31579,7 +31579,7 @@
         <v>-0.4483522462254963</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -31627,7 +31627,7 @@
         <v>0.65465474553770941</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -31675,7 +31675,7 @@
         <v>-1.9392436739288166</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -31723,7 +31723,7 @@
         <v>0.97601719757936622</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -31771,7 +31771,7 @@
         <v>-2.5462530802659127E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -31819,7 +31819,7 @@
         <v>-1.4309294225765534</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -31867,7 +31867,7 @@
         <v>-0.71029439624458368</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -31915,7 +31915,7 @@
         <v>-0.38008130120845057</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -31963,7 +31963,7 @@
         <v>-0.4096070721775642</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -32011,7 +32011,7 @@
         <v>0.84940884891215607</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -32059,7 +32059,7 @@
         <v>-0.12119152328456016</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -32107,7 +32107,7 @@
         <v>0.19271528267590399</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -32155,7 +32155,7 @@
         <v>-1.5167981277278302</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>1.3145295384844324</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -32251,7 +32251,7 @@
         <v>1.2660919229489929</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -32299,7 +32299,7 @@
         <v>-0.50177454030061241</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -32347,7 +32347,7 @@
         <v>-0.35353929819571533</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -32395,7 +32395,7 @@
         <v>6.6188049048795499</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>5.3034520850958016</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -32491,7 +32491,7 @@
         <v>7.9389479235678335</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -32539,7 +32539,7 @@
         <v>7.6588361236207838</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -32587,7 +32587,7 @@
         <v>8.2907420033388632</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -32635,7 +32635,7 @@
         <v>8.4606689877995027</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -32683,7 +32683,7 @@
         <v>6.6188049048795499</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -32731,7 +32731,7 @@
         <v>9.7636473920899185</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -32779,7 +32779,7 @@
         <v>9.4128455140117318</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -32827,7 +32827,7 @@
         <v>6.1762953635295599</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -32875,7 +32875,7 @@
         <v>7.2579196915314252</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -32923,7 +32923,7 @@
         <v>6.9071178134532385</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -32971,7 +32971,7 @@
         <v>6.3575647332452796</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -33019,7 +33019,7 @@
         <v>6.2079960496653905</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -33067,7 +33067,7 @@
         <v>8.5519821749731335</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -33115,7 +33115,7 @@
         <v>8.8785491250810225</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -33163,7 +33163,7 @@
         <v>6.3808871735537513</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -33211,7 +33211,7 @@
         <v>6.1762953635295599</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -33259,7 +33259,7 @@
         <v>7.308034245542598</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -33307,7 +33307,7 @@
         <v>6.6710529392064046</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -33355,7 +33355,7 @@
         <v>9.4887637235959446</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -33403,7 +33403,7 @@
         <v>6.4965459835396784</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -33451,7 +33451,7 @@
         <v>6.5854789835779428</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -33499,7 +33499,7 @@
         <v>8.4997341406462787</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -33559,20 +33559,20 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="15" max="15" width="18.625" customWidth="1"/>
-    <col min="16" max="16" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+    <col min="15" max="15" width="18.6328125" customWidth="1"/>
+    <col min="16" max="16" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -33622,7 +33622,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33688,7 +33688,7 @@
         <v>236.07754903992827</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -33735,7 +33735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -33794,7 +33794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -33860,7 +33860,7 @@
         <v>31.708046653523201</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -33907,7 +33907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -33954,7 +33954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -33998,7 +33998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -34038,7 +34038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -34078,7 +34078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -34118,7 +34118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -34198,7 +34198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -34238,7 +34238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -34318,7 +34318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -34358,7 +34358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -34398,7 +34398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -34478,7 +34478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -34518,7 +34518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -34558,7 +34558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -34598,7 +34598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -34638,7 +34638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -34678,7 +34678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -34718,7 +34718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -34758,7 +34758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -34838,7 +34838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -34878,7 +34878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -34918,7 +34918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -34958,7 +34958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -34998,7 +34998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -35078,7 +35078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -35118,7 +35118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -35158,7 +35158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -35198,7 +35198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -35238,7 +35238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -35278,7 +35278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -35318,7 +35318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -35358,7 +35358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -35398,7 +35398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -35438,7 +35438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -35478,7 +35478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -35558,7 +35558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -35598,7 +35598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -35638,7 +35638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -35678,7 +35678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -35729,22 +35729,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA5FD77-F66C-4D39-B0EB-2AB401E15E45}">
   <dimension ref="A1:AU87"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="9.25" customWidth="1"/>
-    <col min="11" max="12" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" customWidth="1"/>
+    <col min="11" max="12" width="13.08984375" customWidth="1"/>
     <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -35814,7 +35814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -35945,7 +35945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -36052,7 +36052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -36126,7 +36126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -36232,7 +36232,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -36347,7 +36347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -36529,7 +36529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -36624,7 +36624,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -36846,7 +36846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -36957,7 +36957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -37068,7 +37068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -37179,7 +37179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -37290,7 +37290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -37409,7 +37409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -37536,7 +37536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -37663,7 +37663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -37790,7 +37790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -37917,7 +37917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -38044,7 +38044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -38171,7 +38171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -38298,7 +38298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -38425,7 +38425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -38552,7 +38552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -38679,7 +38679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -38806,7 +38806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -38933,7 +38933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -39060,7 +39060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -39187,7 +39187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -39314,7 +39314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -39441,7 +39441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -39568,7 +39568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -39695,7 +39695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -39822,7 +39822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -39949,7 +39949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -40076,7 +40076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -40203,7 +40203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -40330,7 +40330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -40457,7 +40457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -40584,7 +40584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -40711,7 +40711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -40739,7 +40739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -40767,7 +40767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -40795,7 +40795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -40823,7 +40823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -40851,7 +40851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -40879,7 +40879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -40907,7 +40907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -40935,7 +40935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -40963,7 +40963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
@@ -40991,7 +40991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
@@ -41047,7 +41047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -41075,7 +41075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
@@ -41103,7 +41103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
@@ -41131,7 +41131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
@@ -41159,7 +41159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
@@ -41187,7 +41187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -41215,7 +41215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -41243,7 +41243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -41271,7 +41271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -41299,7 +41299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -41327,7 +41327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -41355,7 +41355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -41383,7 +41383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -41411,7 +41411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -41439,7 +41439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -41467,7 +41467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -41495,7 +41495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
@@ -41523,7 +41523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
@@ -41551,7 +41551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
@@ -41579,7 +41579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>72</v>
       </c>
@@ -41607,7 +41607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
@@ -41635,7 +41635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>74</v>
       </c>
@@ -41663,7 +41663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
@@ -41691,7 +41691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>76</v>
       </c>
@@ -41719,7 +41719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>77</v>
       </c>
@@ -41747,7 +41747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>78</v>
       </c>
@@ -41775,7 +41775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>79</v>
       </c>
@@ -41803,7 +41803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>80</v>
       </c>
@@ -41831,7 +41831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>81</v>
       </c>
@@ -41859,7 +41859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>82</v>
       </c>
@@ -41887,7 +41887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>83</v>
       </c>
@@ -41915,7 +41915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>84</v>
       </c>
@@ -41943,7 +41943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>85</v>
       </c>
@@ -42061,13 +42061,13 @@
       <selection activeCell="Q28" sqref="Q28:X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="4" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="3" max="4" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -42130,7 +42130,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -42225,7 +42225,7 @@
         <v>LCL</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -42319,7 +42319,7 @@
         <v>333.35878376855794</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -42395,7 +42395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -42490,7 +42490,7 @@
         <v>LCL</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -42584,7 +42584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -42660,7 +42660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -42736,7 +42736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -42812,7 +42812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -42888,7 +42888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -42964,7 +42964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -43037,7 +43037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -43113,7 +43113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -43189,7 +43189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -43265,7 +43265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -43341,7 +43341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -43417,7 +43417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -43493,7 +43493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -43569,7 +43569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -43645,7 +43645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -43721,7 +43721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -43797,7 +43797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -43866,7 +43866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -43935,7 +43935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -44004,7 +44004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -44073,7 +44073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -44095,7 +44095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -44165,7 +44165,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -44235,7 +44235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -44319,7 +44319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -44403,7 +44403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -44487,7 +44487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -44571,7 +44571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -44655,7 +44655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -44739,7 +44739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -44823,7 +44823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -44907,7 +44907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -44991,7 +44991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -45075,7 +45075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -45159,7 +45159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -45243,7 +45243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -45327,7 +45327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -45411,7 +45411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -45495,7 +45495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -45579,7 +45579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -45663,7 +45663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -45747,7 +45747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -45831,7 +45831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -45915,7 +45915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -45999,7 +45999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -46083,7 +46083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -46167,7 +46167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -46251,7 +46251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -46335,7 +46335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -46357,7 +46357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -46379,7 +46379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -46401,7 +46401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -46423,7 +46423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -46445,7 +46445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -46467,7 +46467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
